--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/20_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/20_455-55R22.xlsx
@@ -1493,100 +1493,100 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.4191875549243985</v>
+        <v>0.3534607255232404</v>
       </c>
       <c r="CO2">
-        <v>0.1988962653115924</v>
+        <v>0.1729653714316563</v>
       </c>
       <c r="CP2">
-        <v>0.1513854117655921</v>
+        <v>0.1340374213113798</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>0.008570529607211982</v>
       </c>
       <c r="CR2">
-        <v>0.02876653646983837</v>
+        <v>0.03356982064628172</v>
       </c>
       <c r="CS2">
-        <v>0.006646683062633787</v>
+        <v>0.0154459502916945</v>
       </c>
       <c r="CT2">
-        <v>0</v>
+        <v>0.002811226636154843</v>
       </c>
       <c r="CU2">
-        <v>0</v>
+        <v>0.0003176361764675716</v>
       </c>
       <c r="CV2">
-        <v>0.02304694628723282</v>
+        <v>0.02888348258415199</v>
       </c>
       <c r="CW2">
-        <v>0.03217939539793669</v>
+        <v>0.03636614174356364</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>0.001887806170921693</v>
       </c>
       <c r="CY2">
-        <v>0.05221316467841435</v>
+        <v>0.05278078204288988</v>
       </c>
       <c r="CZ2">
-        <v>0.01936879692521693</v>
+        <v>0.02586979614804427</v>
       </c>
       <c r="DA2">
-        <v>0.02897323996792089</v>
+        <v>0.03373918286275406</v>
       </c>
       <c r="DB2">
-        <v>0.01872522003150782</v>
+        <v>0.02534248233768272</v>
       </c>
       <c r="DC2">
-        <v>0</v>
+        <v>0.001052573594416121</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>0.0004238482272980532</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>0.0002236692291395045</v>
       </c>
       <c r="DF2">
-        <v>0</v>
+        <v>5.22076721764093E-05</v>
       </c>
       <c r="DG2">
-        <v>0</v>
+        <v>0.007974019610786016</v>
       </c>
       <c r="DH2">
-        <v>0.006331095914911082</v>
+        <v>0.01518737441211669</v>
       </c>
       <c r="DI2">
-        <v>0</v>
+        <v>1.560309909004373E-05</v>
       </c>
       <c r="DJ2">
-        <v>0</v>
+        <v>0.00108754018340912</v>
       </c>
       <c r="DK2">
-        <v>0.01015584799425352</v>
+        <v>0.01832117957566548</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>0.001052857194471808</v>
       </c>
       <c r="DM2">
-        <v>0.003888675663626032</v>
+        <v>0.01318618086120053</v>
       </c>
       <c r="DN2">
-        <v>0.0002351656049246838</v>
+        <v>0.01019268260313718</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>0.0002354472483280357</v>
       </c>
       <c r="DP2">
-        <v>0</v>
+        <v>2.253807396783422E-05</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>0.002952065874196524</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>0.0005177524630324969</v>
       </c>
       <c r="DS2">
-        <v>0</v>
+        <v>0.001454104563472956</v>
       </c>
       <c r="DT2">
         <v>0</v>
@@ -1882,100 +1882,100 @@
         <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.03105458991453655</v>
+        <v>0.03533398239483574</v>
       </c>
       <c r="CR3">
-        <v>0.1678595640736542</v>
+        <v>0.1469379293930445</v>
       </c>
       <c r="CS3">
-        <v>0.34417914417735</v>
+        <v>0.2907774439544952</v>
       </c>
       <c r="CT3">
-        <v>0.104096976904886</v>
+        <v>0.09492113363987928</v>
       </c>
       <c r="CU3">
-        <v>0.002399835875633097</v>
+        <v>0.01195775890105459</v>
       </c>
       <c r="CV3">
-        <v>0.0343734766453744</v>
+        <v>0.03804149256453668</v>
       </c>
       <c r="CW3">
-        <v>0</v>
+        <v>0.003582971044095209</v>
       </c>
       <c r="CX3">
-        <v>0.0203566103724366</v>
+        <v>0.02660669196447626</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>0.006822288297179124</v>
       </c>
       <c r="CZ3">
-        <v>0.02836404672136914</v>
+        <v>0.03313906775980648</v>
       </c>
       <c r="DA3">
-        <v>0.04088274584005891</v>
+        <v>0.0433516805797451</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>0.008963539420785715</v>
       </c>
       <c r="DC3">
-        <v>0.1256742090586891</v>
+        <v>0.112523595015737</v>
       </c>
       <c r="DD3">
-        <v>0</v>
+        <v>0.000426314899997608</v>
       </c>
       <c r="DE3">
-        <v>0.07812054548280759</v>
+        <v>0.0737298553734886</v>
       </c>
       <c r="DF3">
-        <v>0</v>
+        <v>0.0001571596453375208</v>
       </c>
       <c r="DG3">
-        <v>0.02263825493320439</v>
+        <v>0.02846803173076654</v>
       </c>
       <c r="DH3">
-        <v>0</v>
+        <v>0.000261409117006439</v>
       </c>
       <c r="DI3">
-        <v>0</v>
+        <v>9.43148740386411E-05</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>7.45520174872396E-06</v>
       </c>
       <c r="DK3">
-        <v>0</v>
+        <v>0.003202347124299211</v>
       </c>
       <c r="DL3">
-        <v>0</v>
+        <v>0.001131732604067239</v>
       </c>
       <c r="DM3">
-        <v>0</v>
+        <v>0.001574033265720761</v>
       </c>
       <c r="DN3">
-        <v>0</v>
+        <v>0.001160420632816817</v>
       </c>
       <c r="DO3">
-        <v>0</v>
+        <v>0.002885528888486536</v>
       </c>
       <c r="DP3">
-        <v>0</v>
+        <v>0.00212868912464354</v>
       </c>
       <c r="DQ3">
-        <v>0</v>
+        <v>0.008635547116365477</v>
       </c>
       <c r="DR3">
-        <v>0</v>
+        <v>0.009095252894025244</v>
       </c>
       <c r="DS3">
-        <v>0</v>
+        <v>0.008264623064110247</v>
       </c>
       <c r="DT3">
-        <v>0</v>
+        <v>0.002377606052678318</v>
       </c>
       <c r="DU3">
-        <v>0</v>
+        <v>0.001030910705753432</v>
       </c>
       <c r="DV3">
-        <v>0</v>
+        <v>0.002409192754977896</v>
       </c>
     </row>
     <row r="4" spans="1:126">
@@ -2256,100 +2256,100 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.2102933323559729</v>
+        <v>0.1802040037029629</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>0.00029303490855601</v>
       </c>
       <c r="CQ4">
-        <v>0.2551194418598071</v>
+        <v>0.216484675194083</v>
       </c>
       <c r="CR4">
-        <v>0</v>
+        <v>0.004499580771517468</v>
       </c>
       <c r="CS4">
-        <v>0.01196426799722883</v>
+        <v>0.01968345639726003</v>
       </c>
       <c r="CT4">
-        <v>0.06091237193315317</v>
+        <v>0.05930032475074898</v>
       </c>
       <c r="CU4">
-        <v>0</v>
+        <v>0.006823657184081323</v>
       </c>
       <c r="CV4">
-        <v>0</v>
+        <v>0.003393463501923142</v>
       </c>
       <c r="CW4">
-        <v>0</v>
+        <v>0.002662479784846849</v>
       </c>
       <c r="CX4">
-        <v>0.02476182953853135</v>
+        <v>0.03004135118908167</v>
       </c>
       <c r="CY4">
-        <v>0.03527098174367467</v>
+        <v>0.03854708820318444</v>
       </c>
       <c r="CZ4">
-        <v>0.016806218984216</v>
+        <v>0.02360236069387227</v>
       </c>
       <c r="DA4">
-        <v>0.07741725876040371</v>
+        <v>0.07265879782828374</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>0.001610092473027443</v>
       </c>
       <c r="DC4">
-        <v>0.1814439198682341</v>
+        <v>0.1568543070916621</v>
       </c>
       <c r="DD4">
-        <v>0.02304528828274621</v>
+        <v>0.02865204325914033</v>
       </c>
       <c r="DE4">
-        <v>0.07985114096158373</v>
+        <v>0.07462869621042069</v>
       </c>
       <c r="DF4">
-        <v>0.01644086893556386</v>
+        <v>0.02330665925466352</v>
       </c>
       <c r="DG4">
-        <v>0.0001924261553083983</v>
+        <v>0.01015574294098501</v>
       </c>
       <c r="DH4">
-        <v>0</v>
+        <v>3.446935391569198E-05</v>
       </c>
       <c r="DI4">
-        <v>0</v>
+        <v>0.000210751759966172</v>
       </c>
       <c r="DJ4">
-        <v>0.003530742484204563</v>
+        <v>0.01285765839612315</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>0.004712445374907431</v>
       </c>
       <c r="DL4">
-        <v>0</v>
+        <v>0.0009950823195708325</v>
       </c>
       <c r="DM4">
-        <v>0</v>
+        <v>2.519718272750968E-05</v>
       </c>
       <c r="DN4">
-        <v>0</v>
+        <v>0.003621663115905833</v>
       </c>
       <c r="DO4">
-        <v>0</v>
+        <v>0.0005201620772011712</v>
       </c>
       <c r="DP4">
-        <v>0.002651252489972503</v>
+        <v>0.01214583022469258</v>
       </c>
       <c r="DQ4">
-        <v>0.0002986576493988193</v>
+        <v>0.01024172296427424</v>
       </c>
       <c r="DR4">
-        <v>0</v>
+        <v>0.0003626380280612266</v>
       </c>
       <c r="DS4">
-        <v>0</v>
+        <v>0.0005305249318414142</v>
       </c>
       <c r="DT4">
-        <v>0</v>
+        <v>0.0003400389305116147</v>
       </c>
       <c r="DU4">
         <v>0</v>
@@ -2636,100 +2636,100 @@
         <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.038575329251885</v>
+        <v>0.0414397235972116</v>
       </c>
       <c r="CP5">
-        <v>0.3105201763017616</v>
+        <v>0.2630806270126066</v>
       </c>
       <c r="CQ5">
-        <v>0.2347095428401411</v>
+        <v>0.2012933290688982</v>
       </c>
       <c r="CR5">
-        <v>0.0535557580681697</v>
+        <v>0.05364909550629726</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>0.001190238352764568</v>
       </c>
       <c r="CT5">
-        <v>0.04135272014704477</v>
+        <v>0.04370335695455926</v>
       </c>
       <c r="CU5">
-        <v>0.01258300349277528</v>
+        <v>0.02025541867063316</v>
       </c>
       <c r="CV5">
-        <v>0.04308974064189475</v>
+        <v>0.04511906604375923</v>
       </c>
       <c r="CW5">
-        <v>0.003722742016594229</v>
+        <v>0.0130341148681117</v>
       </c>
       <c r="CX5">
-        <v>0.01525273473164749</v>
+        <v>0.02243130709094735</v>
       </c>
       <c r="CY5">
-        <v>0.03983807078402234</v>
+        <v>0.04246888512389326</v>
       </c>
       <c r="CZ5">
-        <v>0</v>
+        <v>0.0005586733277251922</v>
       </c>
       <c r="DA5">
-        <v>0.07343847892181843</v>
+        <v>0.06985394093788058</v>
       </c>
       <c r="DB5">
-        <v>0</v>
+        <v>0.00097695327955818</v>
       </c>
       <c r="DC5">
-        <v>0.1246601080673956</v>
+        <v>0.1116006711348013</v>
       </c>
       <c r="DD5">
-        <v>0</v>
+        <v>0.008923270608888102</v>
       </c>
       <c r="DE5">
-        <v>0.003025394034302868</v>
+        <v>0.01246576125352156</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>0.007083692586443485</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>0.004279224405838725</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>0.0005806953029109944</v>
       </c>
       <c r="DI5">
-        <v>0.003381388787957729</v>
+        <v>0.01275590463982641</v>
       </c>
       <c r="DJ5">
-        <v>0</v>
+        <v>0.002244184492132652</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>0.000377997805546931</v>
       </c>
       <c r="DL5">
-        <v>0</v>
+        <v>0.0001606166517830405</v>
       </c>
       <c r="DM5">
-        <v>0</v>
+        <v>0.003325442405765627</v>
       </c>
       <c r="DN5">
-        <v>0</v>
+        <v>2.321932010179281E-06</v>
       </c>
       <c r="DO5">
-        <v>0</v>
+        <v>0.001201726965841406</v>
       </c>
       <c r="DP5">
-        <v>0</v>
+        <v>0.002741142436134194</v>
       </c>
       <c r="DQ5">
-        <v>0</v>
+        <v>1.275304341272437E-06</v>
       </c>
       <c r="DR5">
-        <v>0</v>
+        <v>0.0006815783159268049</v>
       </c>
       <c r="DS5">
-        <v>0.002294811912589189</v>
+        <v>0.01187032110000375</v>
       </c>
       <c r="DT5">
-        <v>0</v>
+        <v>0.0006494428234373005</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3013,100 +3013,100 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.3936349018295414</v>
+        <v>0.3297597983613985</v>
       </c>
       <c r="CO6">
-        <v>0.05602963586919978</v>
+        <v>0.05551432046428701</v>
       </c>
       <c r="CP6">
-        <v>0.169089399176386</v>
+        <v>0.1473556865369236</v>
       </c>
       <c r="CQ6">
-        <v>0</v>
+        <v>0.006821988524466679</v>
       </c>
       <c r="CR6">
-        <v>0.02309635216080352</v>
+        <v>0.02876176343992101</v>
       </c>
       <c r="CS6">
-        <v>0.0288561171074857</v>
+        <v>0.03344056928106994</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>0.009557935854819691</v>
       </c>
       <c r="CU6">
-        <v>0</v>
+        <v>0.007794735339053832</v>
       </c>
       <c r="CV6">
-        <v>0</v>
+        <v>0.0004658897283973591</v>
       </c>
       <c r="CW6">
-        <v>0.07281874308068702</v>
+        <v>0.06915254591548903</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>0.007357096400860167</v>
       </c>
       <c r="CY6">
-        <v>0.03022702261641498</v>
+        <v>0.03455419123651734</v>
       </c>
       <c r="CZ6">
-        <v>0.03291564040568214</v>
+        <v>0.03673822491384411</v>
       </c>
       <c r="DA6">
-        <v>0.1207201342842007</v>
+        <v>0.1080640832849543</v>
       </c>
       <c r="DB6">
-        <v>0.03603122104201079</v>
+        <v>0.03926909154030635</v>
       </c>
       <c r="DC6">
-        <v>0.03647625380050649</v>
+        <v>0.03963060314524636</v>
       </c>
       <c r="DD6">
-        <v>0</v>
+        <v>0.0005399684806687836</v>
       </c>
       <c r="DE6">
-        <v>0.0001045786270813876</v>
+        <v>0.01008495192004833</v>
       </c>
       <c r="DF6">
-        <v>0</v>
+        <v>0.00101011184188651</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>0.005606515533599876</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>7.958329576344695E-05</v>
       </c>
       <c r="DI6">
-        <v>0</v>
+        <v>0.003216006727646202</v>
       </c>
       <c r="DJ6">
-        <v>0</v>
+        <v>0.006270161250050102</v>
       </c>
       <c r="DK6">
-        <v>0</v>
+        <v>0.001275667846647043</v>
       </c>
       <c r="DL6">
-        <v>0</v>
+        <v>0.0009267018785844975</v>
       </c>
       <c r="DM6">
-        <v>0</v>
+        <v>2.46965273140151E-06</v>
       </c>
       <c r="DN6">
-        <v>0</v>
+        <v>0.002608158168333748</v>
       </c>
       <c r="DO6">
-        <v>0</v>
+        <v>0.003941327532438683</v>
       </c>
       <c r="DP6">
-        <v>0</v>
+        <v>0.002790836180260572</v>
       </c>
       <c r="DQ6">
-        <v>0</v>
+        <v>0.003746778930566271</v>
       </c>
       <c r="DR6">
-        <v>0</v>
+        <v>0.003661174493951884</v>
       </c>
       <c r="DS6">
-        <v>0</v>
+        <v>1.062299267368391E-06</v>
       </c>
       <c r="DT6">
         <v>0</v>
@@ -3273,100 +3273,100 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.2783692295769983</v>
+        <v>0.2311289384491287</v>
       </c>
       <c r="BA7">
-        <v>0.03453113841409994</v>
+        <v>0.0374305963793234</v>
       </c>
       <c r="BB7">
-        <v>0.3186117603469074</v>
+        <v>0.2630965094453151</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>0.007905070686787766</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>0.00267078333643105</v>
       </c>
       <c r="BE7">
-        <v>0.08862388999593929</v>
+        <v>0.08040040576975373</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>0.001486247560971503</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>0.0004688538384750992</v>
       </c>
       <c r="BH7">
-        <v>0.004332849461862019</v>
+        <v>0.01344189766741589</v>
       </c>
       <c r="BI7">
-        <v>0.1091036613412934</v>
+        <v>0.09666897864384859</v>
       </c>
       <c r="BJ7">
-        <v>0.01188713212839076</v>
+        <v>0.01944281418154552</v>
       </c>
       <c r="BK7">
-        <v>0.03010409743290606</v>
+        <v>0.0339138755329505</v>
       </c>
       <c r="BL7">
-        <v>0.02561035242849407</v>
+        <v>0.03034416682629247</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>0.0008229874678974861</v>
       </c>
       <c r="BN7">
-        <v>0.02098891272690815</v>
+        <v>0.02667302092819427</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>0.003904433113832882</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>0.002666134220605244</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>0.0004535735867843523</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>0.00204743898913446</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>0.0009500172333334557</v>
       </c>
       <c r="BT7">
-        <v>0.01236107564005395</v>
+        <v>0.01981930200592966</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>0.008758859639048201</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>0.005328755662279088</v>
       </c>
       <c r="BW7">
-        <v>0.03116631903603286</v>
+        <v>0.03475767545959501</v>
       </c>
       <c r="BX7">
-        <v>0</v>
+        <v>0.002806686075469906</v>
       </c>
       <c r="BY7">
-        <v>0.01607081179071186</v>
+        <v>0.0227662154207776</v>
       </c>
       <c r="BZ7">
-        <v>0.01536566593304254</v>
+        <v>0.02220606674631685</v>
       </c>
       <c r="CA7">
-        <v>0</v>
+        <v>0.006123891050518738</v>
       </c>
       <c r="CB7">
-        <v>0</v>
+        <v>0.00013669361928969</v>
       </c>
       <c r="CC7">
-        <v>0</v>
+        <v>1.814932443025453E-06</v>
       </c>
       <c r="CD7">
-        <v>0</v>
+        <v>0.009094980123352648</v>
       </c>
       <c r="CE7">
-        <v>0.002873103746359621</v>
+        <v>0.01228231540695838</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -3773,100 +3773,100 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.1704146110166822</v>
+        <v>0.14584622503048</v>
       </c>
       <c r="CO8">
-        <v>0.1180605706736823</v>
+        <v>0.104112134841501</v>
       </c>
       <c r="CP8">
-        <v>0.313675515067607</v>
+        <v>0.260046837839829</v>
       </c>
       <c r="CQ8">
-        <v>0.0401144155862251</v>
+        <v>0.0419772576669443</v>
       </c>
       <c r="CR8">
-        <v>0</v>
+        <v>0.0005882564023084938</v>
       </c>
       <c r="CS8">
-        <v>0.02412637800645017</v>
+        <v>0.02923237307107321</v>
       </c>
       <c r="CT8">
-        <v>0.01587748224969166</v>
+        <v>0.02265675527316096</v>
       </c>
       <c r="CU8">
-        <v>0.005493958154003943</v>
+        <v>0.01437951576595625</v>
       </c>
       <c r="CV8">
-        <v>0</v>
+        <v>0.0005930643140023797</v>
       </c>
       <c r="CW8">
-        <v>0.1410274129241726</v>
+        <v>0.122420182502357</v>
       </c>
       <c r="CX8">
-        <v>0.0357700443000576</v>
+        <v>0.03851413654231906</v>
       </c>
       <c r="CY8">
-        <v>0.0120629551461044</v>
+        <v>0.01961600011603389</v>
       </c>
       <c r="CZ8">
-        <v>0.04813871863060762</v>
+        <v>0.04837384109706605</v>
       </c>
       <c r="DA8">
-        <v>0</v>
+        <v>0.0004882274881135669</v>
       </c>
       <c r="DB8">
-        <v>0.06469979808293209</v>
+        <v>0.06157552675421839</v>
       </c>
       <c r="DC8">
-        <v>0</v>
+        <v>1.470227239889956E-05</v>
       </c>
       <c r="DD8">
-        <v>0.0003097860314271538</v>
+        <v>0.01024694633098352</v>
       </c>
       <c r="DE8">
-        <v>0</v>
+        <v>0.006348813311121298</v>
       </c>
       <c r="DF8">
-        <v>0</v>
+        <v>0.00461369579762668</v>
       </c>
       <c r="DG8">
-        <v>0</v>
+        <v>0.005143365308725611</v>
       </c>
       <c r="DH8">
-        <v>0.00301791227552634</v>
+        <v>0.01240573262854361</v>
       </c>
       <c r="DI8">
-        <v>0.001721156693912735</v>
+        <v>0.01137202225888424</v>
       </c>
       <c r="DJ8">
-        <v>0</v>
+        <v>0.003051128239303343</v>
       </c>
       <c r="DK8">
-        <v>0</v>
+        <v>0.001932049517670346</v>
       </c>
       <c r="DL8">
-        <v>0</v>
+        <v>0.0004853416986301422</v>
       </c>
       <c r="DM8">
-        <v>0</v>
+        <v>0.008707667220223965</v>
       </c>
       <c r="DN8">
-        <v>0.005489285160917047</v>
+        <v>0.01437579068354306</v>
       </c>
       <c r="DO8">
-        <v>0</v>
+        <v>0.008519514205659389</v>
       </c>
       <c r="DP8">
-        <v>0</v>
+        <v>0.0007028352168332861</v>
       </c>
       <c r="DQ8">
-        <v>0</v>
+        <v>0.000198377104136292</v>
       </c>
       <c r="DR8">
-        <v>0</v>
+        <v>0.0007820592410294135</v>
       </c>
       <c r="DS8">
-        <v>0</v>
+        <v>0.0006796242593234319</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -3883,10 +3883,10 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>0.3558730213780589</v>
+        <v>0.3256140977624696</v>
       </c>
       <c r="C9">
-        <v>0.1090585981449683</v>
+        <v>0.1033425125127403</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.01236727505293504</v>
+        <v>0.01626602248418446</v>
       </c>
       <c r="G9">
-        <v>0.006604663461416378</v>
+        <v>0.01107643592418155</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3907,55 +3907,55 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0002864487760361686</v>
+        <v>0.005386494567953324</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0008236009812169002</v>
+        <v>0.005870233202843207</v>
       </c>
       <c r="M9">
-        <v>0.05528295753582678</v>
+        <v>0.05491423701149289</v>
       </c>
       <c r="N9">
-        <v>0.1131990218759294</v>
+        <v>0.1070712190211813</v>
       </c>
       <c r="O9">
-        <v>0.0671761705806424</v>
+        <v>0.0656248076603054</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.001407264510705597</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.02643939584360275</v>
+        <v>0.02893883372023395</v>
       </c>
       <c r="S9">
-        <v>0.08426403013074781</v>
+        <v>0.08101347733760256</v>
       </c>
       <c r="T9">
-        <v>0.05569383373436428</v>
+        <v>0.05528425632719579</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.003602080170150786</v>
+        <v>0.008372424792045752</v>
       </c>
       <c r="W9">
-        <v>0.03432646161576178</v>
+        <v>0.03604162207912607</v>
       </c>
       <c r="X9">
-        <v>0.03412693722983661</v>
+        <v>0.03586193808426616</v>
       </c>
       <c r="Y9">
-        <v>0.007137630596971029</v>
+        <v>0.01155640564618545</v>
       </c>
       <c r="Z9">
-        <v>0.007357733829417046</v>
+        <v>0.01175462215944069</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -3967,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.0005890960483682455</v>
       </c>
       <c r="AE9">
-        <v>0.02170359733217656</v>
+        <v>0.02467395556291532</v>
       </c>
       <c r="AF9">
-        <v>0.004676541729941117</v>
+        <v>0.009340043584562393</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -4263,28 +4263,28 @@
         <v>134</v>
       </c>
       <c r="B10">
-        <v>0.3045546881646484</v>
+        <v>0.2723686306910577</v>
       </c>
       <c r="C10">
-        <v>0.2219799464494207</v>
+        <v>0.2003302147750844</v>
       </c>
       <c r="D10">
-        <v>0.03422342571615477</v>
+        <v>0.03653094576659528</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.001312775841989043</v>
+        <v>0.007819610623988105</v>
       </c>
       <c r="G10">
-        <v>0.0109767626201317</v>
+        <v>0.01625049741175659</v>
       </c>
       <c r="H10">
-        <v>0.003185160989627794</v>
+        <v>0.009453084216744343</v>
       </c>
       <c r="I10">
-        <v>0.001612402046391475</v>
+        <v>0.008081005291215825</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4296,31 +4296,31 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0136977595187081</v>
+        <v>0.01862430206695871</v>
       </c>
       <c r="N10">
-        <v>0.04997698108168485</v>
+        <v>0.0502743877684016</v>
       </c>
       <c r="O10">
-        <v>0.08382925765916002</v>
+        <v>0.07980720045585567</v>
       </c>
       <c r="P10">
-        <v>0.008708573993655941</v>
+        <v>0.01427172385151415</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.001025228434433407</v>
       </c>
       <c r="S10">
-        <v>0.05129031528436409</v>
+        <v>0.05142014388660492</v>
       </c>
       <c r="T10">
-        <v>0.09728273609809912</v>
+        <v>0.09154404946282203</v>
       </c>
       <c r="U10">
-        <v>0.06151429899400727</v>
+        <v>0.06033957343000473</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -4329,16 +4329,16 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.02604185574313218</v>
+        <v>0.02939332319194844</v>
       </c>
       <c r="Y10">
-        <v>0.02257812814046713</v>
+        <v>0.02637155837043756</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.006434064175185383</v>
       </c>
       <c r="AA10">
-        <v>0.002822628797496405</v>
+        <v>0.009136810204895096</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.0044123028608613</v>
+        <v>0.01052364592449623</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -4793,100 +4793,100 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.2592769101764228</v>
+        <v>0.2230194153683032</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>0.003029794249319589</v>
       </c>
       <c r="BB11">
-        <v>0.3503513054550158</v>
+        <v>0.29784526246771</v>
       </c>
       <c r="BC11">
-        <v>0.04051699515745712</v>
+        <v>0.04328837348088212</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>0.007301316782442628</v>
       </c>
       <c r="BE11">
-        <v>0.08115384326839907</v>
+        <v>0.07667521699545959</v>
       </c>
       <c r="BF11">
-        <v>0.0196134725795136</v>
+        <v>0.02611424040570105</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>0.0004013291759833063</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>0.003631307137243256</v>
       </c>
       <c r="BI11">
-        <v>0.1253909162903644</v>
+        <v>0.1130199706657033</v>
       </c>
       <c r="BJ11">
-        <v>0.00435142727621996</v>
+        <v>0.01357509079295698</v>
       </c>
       <c r="BK11">
-        <v>0.02216461931604053</v>
+        <v>0.02821023802447835</v>
       </c>
       <c r="BL11">
-        <v>0.04150213863379578</v>
+        <v>0.0440977578847643</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>4.303483380139027E-05</v>
       </c>
       <c r="BN11">
-        <v>0.02251881985615799</v>
+        <v>0.02850124578111823</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.006332946675936626</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>0.00259913065008579</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.000789740437905566</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.0008570981283736624</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>3.209637339871037E-05</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.003392059470871622</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>0.003229992397896159</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>0.0003796239287754585</v>
       </c>
       <c r="BW11">
-        <v>0.02332593370636558</v>
+        <v>0.02916436275667109</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>0.00243783855148801</v>
       </c>
       <c r="BY11">
-        <v>0</v>
+        <v>0.008109711502283515</v>
       </c>
       <c r="BZ11">
-        <v>0.00983361828424727</v>
+        <v>0.01807920619094101</v>
       </c>
       <c r="CA11">
-        <v>0</v>
+        <v>0.004984627324279639</v>
       </c>
       <c r="CB11">
-        <v>0</v>
+        <v>2.320778269532873E-07</v>
       </c>
       <c r="CC11">
-        <v>0</v>
+        <v>5.55743659379272E-05</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>0.002189508854612637</v>
       </c>
       <c r="CE11">
-        <v>0</v>
+        <v>0.008612656266848305</v>
       </c>
       <c r="CF11">
         <v>0</v>
@@ -5686,97 +5686,97 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.4191875549243985</v>
+        <v>0.3534607255232404</v>
       </c>
       <c r="CO2">
-        <v>0.618083820235991</v>
+        <v>0.5264260969548967</v>
       </c>
       <c r="CP2">
-        <v>0.7694692320015831</v>
+        <v>0.6604635182662765</v>
       </c>
       <c r="CQ2">
-        <v>0.7694692320015831</v>
+        <v>0.6690340478734884</v>
       </c>
       <c r="CR2">
-        <v>0.7982357684714215</v>
+        <v>0.7026038685197702</v>
       </c>
       <c r="CS2">
-        <v>0.8048824515340554</v>
+        <v>0.7180498188114647</v>
       </c>
       <c r="CT2">
-        <v>0.8048824515340554</v>
+        <v>0.7208610454476195</v>
       </c>
       <c r="CU2">
-        <v>0.8048824515340554</v>
+        <v>0.721178681624087</v>
       </c>
       <c r="CV2">
-        <v>0.8279293978212882</v>
+        <v>0.750062164208239</v>
       </c>
       <c r="CW2">
-        <v>0.8601087932192248</v>
+        <v>0.7864283059518027</v>
       </c>
       <c r="CX2">
-        <v>0.8601087932192248</v>
+        <v>0.7883161121227243</v>
       </c>
       <c r="CY2">
-        <v>0.9123219578976391</v>
+        <v>0.8410968941656142</v>
       </c>
       <c r="CZ2">
-        <v>0.9316907548228561</v>
+        <v>0.8669666903136585</v>
       </c>
       <c r="DA2">
-        <v>0.960663994790777</v>
+        <v>0.9007058731764125</v>
       </c>
       <c r="DB2">
-        <v>0.9793892148222848</v>
+        <v>0.9260483555140953</v>
       </c>
       <c r="DC2">
-        <v>0.9793892148222848</v>
+        <v>0.9271009291085114</v>
       </c>
       <c r="DD2">
-        <v>0.9793892148222848</v>
+        <v>0.9275247773358094</v>
       </c>
       <c r="DE2">
-        <v>0.9793892148222848</v>
+        <v>0.9277484465649489</v>
       </c>
       <c r="DF2">
-        <v>0.9793892148222848</v>
+        <v>0.9278006542371253</v>
       </c>
       <c r="DG2">
-        <v>0.9793892148222848</v>
+        <v>0.9357746738479114</v>
       </c>
       <c r="DH2">
-        <v>0.9857203107371959</v>
+        <v>0.9509620482600281</v>
       </c>
       <c r="DI2">
-        <v>0.9857203107371959</v>
+        <v>0.950977651359118</v>
       </c>
       <c r="DJ2">
-        <v>0.9857203107371959</v>
+        <v>0.9520651915425272</v>
       </c>
       <c r="DK2">
-        <v>0.9958761587314494</v>
+        <v>0.9703863711181927</v>
       </c>
       <c r="DL2">
-        <v>0.9958761587314494</v>
+        <v>0.9714392283126645</v>
       </c>
       <c r="DM2">
-        <v>0.9997648343950755</v>
+        <v>0.984625409173865</v>
       </c>
       <c r="DN2">
-        <v>1</v>
+        <v>0.9948180917770022</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0.9950535390253302</v>
       </c>
       <c r="DP2">
-        <v>1</v>
+        <v>0.995076077099298</v>
       </c>
       <c r="DQ2">
-        <v>1</v>
+        <v>0.9980281429734945</v>
       </c>
       <c r="DR2">
-        <v>1</v>
+        <v>0.9985458954365271</v>
       </c>
       <c r="DS2">
         <v>1</v>
@@ -6075,97 +6075,97 @@
         <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.03105458991453655</v>
+        <v>0.03533398239483574</v>
       </c>
       <c r="CR3">
-        <v>0.1989141539881908</v>
+        <v>0.1822719117878803</v>
       </c>
       <c r="CS3">
-        <v>0.5430932981655407</v>
+        <v>0.4730493557423754</v>
       </c>
       <c r="CT3">
-        <v>0.6471902750704268</v>
+        <v>0.5679704893822547</v>
       </c>
       <c r="CU3">
-        <v>0.6495901109460599</v>
+        <v>0.5799282482833092</v>
       </c>
       <c r="CV3">
-        <v>0.6839635875914343</v>
+        <v>0.6179697408478459</v>
       </c>
       <c r="CW3">
-        <v>0.6839635875914343</v>
+        <v>0.6215527118919412</v>
       </c>
       <c r="CX3">
-        <v>0.7043201979638709</v>
+        <v>0.6481594038564175</v>
       </c>
       <c r="CY3">
-        <v>0.7043201979638709</v>
+        <v>0.6549816921535966</v>
       </c>
       <c r="CZ3">
-        <v>0.7326842446852401</v>
+        <v>0.688120759913403</v>
       </c>
       <c r="DA3">
-        <v>0.773566990525299</v>
+        <v>0.7314724404931482</v>
       </c>
       <c r="DB3">
-        <v>0.773566990525299</v>
+        <v>0.740435979913934</v>
       </c>
       <c r="DC3">
-        <v>0.8992411995839882</v>
+        <v>0.852959574929671</v>
       </c>
       <c r="DD3">
-        <v>0.8992411995839882</v>
+        <v>0.8533858898296686</v>
       </c>
       <c r="DE3">
-        <v>0.9773617450667957</v>
+        <v>0.9271157452031572</v>
       </c>
       <c r="DF3">
-        <v>0.9773617450667957</v>
+        <v>0.9272729048484947</v>
       </c>
       <c r="DG3">
-        <v>1</v>
+        <v>0.9557409365792612</v>
       </c>
       <c r="DH3">
-        <v>1</v>
+        <v>0.9560023456962676</v>
       </c>
       <c r="DI3">
-        <v>1</v>
+        <v>0.9560966605703063</v>
       </c>
       <c r="DJ3">
-        <v>1</v>
+        <v>0.956104115772055</v>
       </c>
       <c r="DK3">
-        <v>1</v>
+        <v>0.9593064628963542</v>
       </c>
       <c r="DL3">
-        <v>1</v>
+        <v>0.9604381955004215</v>
       </c>
       <c r="DM3">
-        <v>1</v>
+        <v>0.9620122287661423</v>
       </c>
       <c r="DN3">
-        <v>1</v>
+        <v>0.9631726493989592</v>
       </c>
       <c r="DO3">
-        <v>1</v>
+        <v>0.9660581782874458</v>
       </c>
       <c r="DP3">
-        <v>1</v>
+        <v>0.9681868674120894</v>
       </c>
       <c r="DQ3">
-        <v>1</v>
+        <v>0.9768224145284549</v>
       </c>
       <c r="DR3">
-        <v>1</v>
+        <v>0.9859176674224801</v>
       </c>
       <c r="DS3">
-        <v>1</v>
+        <v>0.9941822904865903</v>
       </c>
       <c r="DT3">
-        <v>1</v>
+        <v>0.9965598965392687</v>
       </c>
       <c r="DU3">
-        <v>1</v>
+        <v>0.9975908072450221</v>
       </c>
       <c r="DV3">
         <v>1</v>
@@ -6449,106 +6449,106 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.2102933323559729</v>
+        <v>0.1802040037029629</v>
       </c>
       <c r="CP4">
-        <v>0.2102933323559729</v>
+        <v>0.1804970386115189</v>
       </c>
       <c r="CQ4">
-        <v>0.46541277421578</v>
+        <v>0.3969817138056019</v>
       </c>
       <c r="CR4">
-        <v>0.46541277421578</v>
+        <v>0.4014812945771193</v>
       </c>
       <c r="CS4">
-        <v>0.4773770422130088</v>
+        <v>0.4211647509743794</v>
       </c>
       <c r="CT4">
-        <v>0.5382894141461619</v>
+        <v>0.4804650757251284</v>
       </c>
       <c r="CU4">
-        <v>0.5382894141461619</v>
+        <v>0.4872887329092097</v>
       </c>
       <c r="CV4">
-        <v>0.5382894141461619</v>
+        <v>0.4906821964111329</v>
       </c>
       <c r="CW4">
-        <v>0.5382894141461619</v>
+        <v>0.4933446761959797</v>
       </c>
       <c r="CX4">
-        <v>0.5630512436846933</v>
+        <v>0.5233860273850613</v>
       </c>
       <c r="CY4">
-        <v>0.598322225428368</v>
+        <v>0.5619331155882458</v>
       </c>
       <c r="CZ4">
-        <v>0.615128444412584</v>
+        <v>0.585535476282118</v>
       </c>
       <c r="DA4">
-        <v>0.6925457031729877</v>
+        <v>0.6581942741104018</v>
       </c>
       <c r="DB4">
-        <v>0.6925457031729877</v>
+        <v>0.6598043665834292</v>
       </c>
       <c r="DC4">
-        <v>0.8739896230412217</v>
+        <v>0.8166586736750914</v>
       </c>
       <c r="DD4">
-        <v>0.897034911323968</v>
+        <v>0.8453107169342317</v>
       </c>
       <c r="DE4">
-        <v>0.9768860522855517</v>
+        <v>0.9199394131446523</v>
       </c>
       <c r="DF4">
-        <v>0.9933269212211155</v>
+        <v>0.9432460723993159</v>
       </c>
       <c r="DG4">
-        <v>0.9935193473764239</v>
+        <v>0.9534018153403009</v>
       </c>
       <c r="DH4">
-        <v>0.9935193473764239</v>
+        <v>0.9534362846942166</v>
       </c>
       <c r="DI4">
-        <v>0.9935193473764239</v>
+        <v>0.9536470364541828</v>
       </c>
       <c r="DJ4">
-        <v>0.9970500898606285</v>
+        <v>0.966504694850306</v>
       </c>
       <c r="DK4">
-        <v>0.9970500898606285</v>
+        <v>0.9712171402252134</v>
       </c>
       <c r="DL4">
-        <v>0.9970500898606285</v>
+        <v>0.9722122225447842</v>
       </c>
       <c r="DM4">
-        <v>0.9970500898606285</v>
+        <v>0.9722374197275118</v>
       </c>
       <c r="DN4">
-        <v>0.9970500898606285</v>
+        <v>0.9758590828434176</v>
       </c>
       <c r="DO4">
-        <v>0.9970500898606285</v>
+        <v>0.9763792449206188</v>
       </c>
       <c r="DP4">
-        <v>0.999701342350601</v>
+        <v>0.9885250751453114</v>
       </c>
       <c r="DQ4">
-        <v>0.9999999999999999</v>
+        <v>0.9987667981095857</v>
       </c>
       <c r="DR4">
-        <v>0.9999999999999999</v>
+        <v>0.9991294361376469</v>
       </c>
       <c r="DS4">
-        <v>0.9999999999999999</v>
+        <v>0.9996599610694884</v>
       </c>
       <c r="DT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:126">
@@ -6829,97 +6829,97 @@
         <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.038575329251885</v>
+        <v>0.0414397235972116</v>
       </c>
       <c r="CP5">
-        <v>0.3490955055536466</v>
+        <v>0.3045203506098182</v>
       </c>
       <c r="CQ5">
-        <v>0.5838050483937877</v>
+        <v>0.5058136796787165</v>
       </c>
       <c r="CR5">
-        <v>0.6373608064619574</v>
+        <v>0.5594627751850137</v>
       </c>
       <c r="CS5">
-        <v>0.6373608064619574</v>
+        <v>0.5606530135377783</v>
       </c>
       <c r="CT5">
-        <v>0.6787135266090021</v>
+        <v>0.6043563704923376</v>
       </c>
       <c r="CU5">
-        <v>0.6912965301017774</v>
+        <v>0.6246117891629708</v>
       </c>
       <c r="CV5">
-        <v>0.7343862707436721</v>
+        <v>0.66973085520673</v>
       </c>
       <c r="CW5">
-        <v>0.7381090127602664</v>
+        <v>0.6827649700748417</v>
       </c>
       <c r="CX5">
-        <v>0.7533617474919139</v>
+        <v>0.705196277165789</v>
       </c>
       <c r="CY5">
-        <v>0.7931998182759362</v>
+        <v>0.7476651622896823</v>
       </c>
       <c r="CZ5">
-        <v>0.7931998182759362</v>
+        <v>0.7482238356174075</v>
       </c>
       <c r="DA5">
-        <v>0.8666382971977546</v>
+        <v>0.818077776555288</v>
       </c>
       <c r="DB5">
-        <v>0.8666382971977546</v>
+        <v>0.8190547298348462</v>
       </c>
       <c r="DC5">
-        <v>0.9912984052651502</v>
+        <v>0.9306554009696474</v>
       </c>
       <c r="DD5">
-        <v>0.9912984052651502</v>
+        <v>0.9395786715785355</v>
       </c>
       <c r="DE5">
-        <v>0.9943237992994531</v>
+        <v>0.9520444328320571</v>
       </c>
       <c r="DF5">
-        <v>0.9943237992994531</v>
+        <v>0.9591281254185006</v>
       </c>
       <c r="DG5">
-        <v>0.9943237992994531</v>
+        <v>0.9634073498243393</v>
       </c>
       <c r="DH5">
-        <v>0.9943237992994531</v>
+        <v>0.9639880451272503</v>
       </c>
       <c r="DI5">
-        <v>0.9977051880874108</v>
+        <v>0.9767439497670768</v>
       </c>
       <c r="DJ5">
-        <v>0.9977051880874108</v>
+        <v>0.9789881342592095</v>
       </c>
       <c r="DK5">
-        <v>0.9977051880874108</v>
+        <v>0.9793661320647564</v>
       </c>
       <c r="DL5">
-        <v>0.9977051880874108</v>
+        <v>0.9795267487165394</v>
       </c>
       <c r="DM5">
-        <v>0.9977051880874108</v>
+        <v>0.982852191122305</v>
       </c>
       <c r="DN5">
-        <v>0.9977051880874108</v>
+        <v>0.9828545130543153</v>
       </c>
       <c r="DO5">
-        <v>0.9977051880874108</v>
+        <v>0.9840562400201567</v>
       </c>
       <c r="DP5">
-        <v>0.9977051880874108</v>
+        <v>0.9867973824562909</v>
       </c>
       <c r="DQ5">
-        <v>0.9977051880874108</v>
+        <v>0.9867986577606321</v>
       </c>
       <c r="DR5">
-        <v>0.9977051880874108</v>
+        <v>0.987480236076559</v>
       </c>
       <c r="DS5">
-        <v>1</v>
+        <v>0.9993505571765627</v>
       </c>
       <c r="DT5">
         <v>1</v>
@@ -7206,109 +7206,109 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.3936349018295414</v>
+        <v>0.3297597983613985</v>
       </c>
       <c r="CO6">
-        <v>0.4496645376987412</v>
+        <v>0.3852741188256855</v>
       </c>
       <c r="CP6">
-        <v>0.6187539368751271</v>
+        <v>0.5326298053626091</v>
       </c>
       <c r="CQ6">
-        <v>0.6187539368751271</v>
+        <v>0.5394517938870758</v>
       </c>
       <c r="CR6">
-        <v>0.6418502890359307</v>
+        <v>0.5682135573269967</v>
       </c>
       <c r="CS6">
-        <v>0.6707064061434164</v>
+        <v>0.6016541266080667</v>
       </c>
       <c r="CT6">
-        <v>0.6707064061434164</v>
+        <v>0.6112120624628864</v>
       </c>
       <c r="CU6">
-        <v>0.6707064061434164</v>
+        <v>0.6190067978019402</v>
       </c>
       <c r="CV6">
-        <v>0.6707064061434164</v>
+        <v>0.6194726875303376</v>
       </c>
       <c r="CW6">
-        <v>0.7435251492241034</v>
+        <v>0.6886252334458266</v>
       </c>
       <c r="CX6">
-        <v>0.7435251492241034</v>
+        <v>0.6959823298466867</v>
       </c>
       <c r="CY6">
-        <v>0.7737521718405184</v>
+        <v>0.7305365210832041</v>
       </c>
       <c r="CZ6">
-        <v>0.8066678122462005</v>
+        <v>0.7672747459970483</v>
       </c>
       <c r="DA6">
-        <v>0.9273879465304012</v>
+        <v>0.8753388292820026</v>
       </c>
       <c r="DB6">
-        <v>0.9634191675724121</v>
+        <v>0.9146079208223089</v>
       </c>
       <c r="DC6">
-        <v>0.9998954213729185</v>
+        <v>0.9542385239675553</v>
       </c>
       <c r="DD6">
-        <v>0.9998954213729185</v>
+        <v>0.954778492448224</v>
       </c>
       <c r="DE6">
-        <v>0.9999999999999999</v>
+        <v>0.9648634443682723</v>
       </c>
       <c r="DF6">
-        <v>0.9999999999999999</v>
+        <v>0.9658735562101588</v>
       </c>
       <c r="DG6">
-        <v>0.9999999999999999</v>
+        <v>0.9714800717437587</v>
       </c>
       <c r="DH6">
-        <v>0.9999999999999999</v>
+        <v>0.9715596550395221</v>
       </c>
       <c r="DI6">
-        <v>0.9999999999999999</v>
+        <v>0.9747756617671683</v>
       </c>
       <c r="DJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9810458230172184</v>
       </c>
       <c r="DK6">
-        <v>0.9999999999999999</v>
+        <v>0.9823214908638654</v>
       </c>
       <c r="DL6">
-        <v>0.9999999999999999</v>
+        <v>0.9832481927424499</v>
       </c>
       <c r="DM6">
-        <v>0.9999999999999999</v>
+        <v>0.9832506623951813</v>
       </c>
       <c r="DN6">
-        <v>0.9999999999999999</v>
+        <v>0.985858820563515</v>
       </c>
       <c r="DO6">
-        <v>0.9999999999999999</v>
+        <v>0.9898001480959537</v>
       </c>
       <c r="DP6">
-        <v>0.9999999999999999</v>
+        <v>0.9925909842762143</v>
       </c>
       <c r="DQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9963377632067806</v>
       </c>
       <c r="DR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999989377007324</v>
       </c>
       <c r="DS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:126">
@@ -7466,229 +7466,229 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.2783692295769983</v>
+        <v>0.2311289384491287</v>
       </c>
       <c r="BA7">
-        <v>0.3129003679910982</v>
+        <v>0.2685595348284521</v>
       </c>
       <c r="BB7">
-        <v>0.6315121283380056</v>
+        <v>0.5316560442737672</v>
       </c>
       <c r="BC7">
-        <v>0.6315121283380056</v>
+        <v>0.539561114960555</v>
       </c>
       <c r="BD7">
-        <v>0.6315121283380056</v>
+        <v>0.542231898296986</v>
       </c>
       <c r="BE7">
-        <v>0.7201360183339449</v>
+        <v>0.6226323040667398</v>
       </c>
       <c r="BF7">
-        <v>0.7201360183339449</v>
+        <v>0.6241185516277112</v>
       </c>
       <c r="BG7">
-        <v>0.7201360183339449</v>
+        <v>0.6245874054661863</v>
       </c>
       <c r="BH7">
-        <v>0.7244688677958069</v>
+        <v>0.6380293031336022</v>
       </c>
       <c r="BI7">
-        <v>0.8335725291371002</v>
+        <v>0.7346982817774508</v>
       </c>
       <c r="BJ7">
-        <v>0.845459661265491</v>
+        <v>0.7541410959589963</v>
       </c>
       <c r="BK7">
-        <v>0.8755637586983971</v>
+        <v>0.7880549714919467</v>
       </c>
       <c r="BL7">
-        <v>0.9011741111268912</v>
+        <v>0.8183991383182392</v>
       </c>
       <c r="BM7">
-        <v>0.9011741111268912</v>
+        <v>0.8192221257861366</v>
       </c>
       <c r="BN7">
-        <v>0.9221630238537993</v>
+        <v>0.8458951467143309</v>
       </c>
       <c r="BO7">
-        <v>0.9221630238537993</v>
+        <v>0.8497995798281638</v>
       </c>
       <c r="BP7">
-        <v>0.9221630238537993</v>
+        <v>0.852465714048769</v>
       </c>
       <c r="BQ7">
-        <v>0.9221630238537993</v>
+        <v>0.8529192876355534</v>
       </c>
       <c r="BR7">
-        <v>0.9221630238537993</v>
+        <v>0.8549667266246879</v>
       </c>
       <c r="BS7">
-        <v>0.9221630238537993</v>
+        <v>0.8559167438580213</v>
       </c>
       <c r="BT7">
-        <v>0.9345240994938533</v>
+        <v>0.8757360458639509</v>
       </c>
       <c r="BU7">
-        <v>0.9345240994938533</v>
+        <v>0.8844949055029991</v>
       </c>
       <c r="BV7">
-        <v>0.9345240994938533</v>
+        <v>0.8898236611652782</v>
       </c>
       <c r="BW7">
-        <v>0.9656904185298861</v>
+        <v>0.9245813366248732</v>
       </c>
       <c r="BX7">
-        <v>0.9656904185298861</v>
+        <v>0.927388022700343</v>
       </c>
       <c r="BY7">
-        <v>0.981761230320598</v>
+        <v>0.9501542381211207</v>
       </c>
       <c r="BZ7">
-        <v>0.9971268962536406</v>
+        <v>0.9723603048674375</v>
       </c>
       <c r="CA7">
-        <v>0.9971268962536406</v>
+        <v>0.9784841959179562</v>
       </c>
       <c r="CB7">
-        <v>0.9971268962536406</v>
+        <v>0.9786208895372459</v>
       </c>
       <c r="CC7">
-        <v>0.9971268962536406</v>
+        <v>0.9786227044696889</v>
       </c>
       <c r="CD7">
-        <v>0.9971268962536406</v>
+        <v>0.9877176845930415</v>
       </c>
       <c r="CE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:126">
@@ -7966,97 +7966,97 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.1704146110166822</v>
+        <v>0.14584622503048</v>
       </c>
       <c r="CO8">
-        <v>0.2884751816903645</v>
+        <v>0.2499583598719811</v>
       </c>
       <c r="CP8">
-        <v>0.6021506967579715</v>
+        <v>0.5100051977118101</v>
       </c>
       <c r="CQ8">
-        <v>0.6422651123441966</v>
+        <v>0.5519824553787543</v>
       </c>
       <c r="CR8">
-        <v>0.6422651123441966</v>
+        <v>0.5525707117810629</v>
       </c>
       <c r="CS8">
-        <v>0.6663914903506467</v>
+        <v>0.5818030848521361</v>
       </c>
       <c r="CT8">
-        <v>0.6822689726003384</v>
+        <v>0.604459840125297</v>
       </c>
       <c r="CU8">
-        <v>0.6877629307543424</v>
+        <v>0.6188393558912532</v>
       </c>
       <c r="CV8">
-        <v>0.6877629307543424</v>
+        <v>0.6194324202052556</v>
       </c>
       <c r="CW8">
-        <v>0.828790343678515</v>
+        <v>0.7418526027076126</v>
       </c>
       <c r="CX8">
-        <v>0.8645603879785726</v>
+        <v>0.7803667392499316</v>
       </c>
       <c r="CY8">
-        <v>0.876623343124677</v>
+        <v>0.7999827393659655</v>
       </c>
       <c r="CZ8">
-        <v>0.9247620617552846</v>
+        <v>0.8483565804630315</v>
       </c>
       <c r="DA8">
-        <v>0.9247620617552846</v>
+        <v>0.8488448079511451</v>
       </c>
       <c r="DB8">
-        <v>0.9894618598382168</v>
+        <v>0.9104203347053635</v>
       </c>
       <c r="DC8">
-        <v>0.9894618598382168</v>
+        <v>0.9104350369777624</v>
       </c>
       <c r="DD8">
-        <v>0.9897716458696439</v>
+        <v>0.920681983308746</v>
       </c>
       <c r="DE8">
-        <v>0.9897716458696439</v>
+        <v>0.9270307966198672</v>
       </c>
       <c r="DF8">
-        <v>0.9897716458696439</v>
+        <v>0.9316444924174939</v>
       </c>
       <c r="DG8">
-        <v>0.9897716458696439</v>
+        <v>0.9367878577262195</v>
       </c>
       <c r="DH8">
-        <v>0.9927895581451703</v>
+        <v>0.9491935903547631</v>
       </c>
       <c r="DI8">
-        <v>0.994510714839083</v>
+        <v>0.9605656126136474</v>
       </c>
       <c r="DJ8">
-        <v>0.994510714839083</v>
+        <v>0.9636167408529507</v>
       </c>
       <c r="DK8">
-        <v>0.994510714839083</v>
+        <v>0.965548790370621</v>
       </c>
       <c r="DL8">
-        <v>0.994510714839083</v>
+        <v>0.9660341320692512</v>
       </c>
       <c r="DM8">
-        <v>0.994510714839083</v>
+        <v>0.9747417992894751</v>
       </c>
       <c r="DN8">
-        <v>1</v>
+        <v>0.9891175899730182</v>
       </c>
       <c r="DO8">
-        <v>1</v>
+        <v>0.9976371041786777</v>
       </c>
       <c r="DP8">
-        <v>1</v>
+        <v>0.9983399393955109</v>
       </c>
       <c r="DQ8">
-        <v>1</v>
+        <v>0.9985383164996472</v>
       </c>
       <c r="DR8">
-        <v>1</v>
+        <v>0.9993203757406766</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -8076,94 +8076,94 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>0.3558730213780589</v>
+        <v>0.3256140977624696</v>
       </c>
       <c r="C9">
-        <v>0.4649316195230272</v>
+        <v>0.4289566102752099</v>
       </c>
       <c r="D9">
-        <v>0.4649316195230272</v>
+        <v>0.4289566102752099</v>
       </c>
       <c r="E9">
-        <v>0.4649316195230272</v>
+        <v>0.4289566102752099</v>
       </c>
       <c r="F9">
-        <v>0.4772988945759623</v>
+        <v>0.4452226327593944</v>
       </c>
       <c r="G9">
-        <v>0.4839035580373786</v>
+        <v>0.4562990686835759</v>
       </c>
       <c r="H9">
-        <v>0.4839035580373786</v>
+        <v>0.4562990686835759</v>
       </c>
       <c r="I9">
-        <v>0.4839035580373786</v>
+        <v>0.4562990686835759</v>
       </c>
       <c r="J9">
-        <v>0.4841900068134148</v>
+        <v>0.4616855632515293</v>
       </c>
       <c r="K9">
-        <v>0.4841900068134148</v>
+        <v>0.4616855632515293</v>
       </c>
       <c r="L9">
-        <v>0.4850136077946317</v>
+        <v>0.4675557964543725</v>
       </c>
       <c r="M9">
-        <v>0.5402965653304584</v>
+        <v>0.5224700334658654</v>
       </c>
       <c r="N9">
-        <v>0.6534955872063879</v>
+        <v>0.6295412524870467</v>
       </c>
       <c r="O9">
-        <v>0.7206717577870303</v>
+        <v>0.6951660601473522</v>
       </c>
       <c r="P9">
-        <v>0.7206717577870303</v>
+        <v>0.6965733246580578</v>
       </c>
       <c r="Q9">
-        <v>0.7206717577870303</v>
+        <v>0.6965733246580578</v>
       </c>
       <c r="R9">
-        <v>0.7471111536306331</v>
+        <v>0.7255121583782917</v>
       </c>
       <c r="S9">
-        <v>0.8313751837613809</v>
+        <v>0.8065256357158943</v>
       </c>
       <c r="T9">
-        <v>0.8870690174957452</v>
+        <v>0.8618098920430901</v>
       </c>
       <c r="U9">
-        <v>0.8870690174957452</v>
+        <v>0.8618098920430901</v>
       </c>
       <c r="V9">
-        <v>0.8906710976658959</v>
+        <v>0.8701823168351359</v>
       </c>
       <c r="W9">
-        <v>0.9249975592816577</v>
+        <v>0.906223938914262</v>
       </c>
       <c r="X9">
-        <v>0.9591244965114943</v>
+        <v>0.9420858769985282</v>
       </c>
       <c r="Y9">
-        <v>0.9662621271084654</v>
+        <v>0.9536422826447136</v>
       </c>
       <c r="Z9">
-        <v>0.9736198609378824</v>
+        <v>0.9653969048041543</v>
       </c>
       <c r="AA9">
-        <v>0.9736198609378824</v>
+        <v>0.9653969048041543</v>
       </c>
       <c r="AB9">
-        <v>0.9736198609378824</v>
+        <v>0.9653969048041543</v>
       </c>
       <c r="AC9">
-        <v>0.9736198609378824</v>
+        <v>0.9653969048041543</v>
       </c>
       <c r="AD9">
-        <v>0.9736198609378824</v>
+        <v>0.9659860008525225</v>
       </c>
       <c r="AE9">
-        <v>0.995323458270059</v>
+        <v>0.9906599564154378</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -8456,94 +8456,94 @@
         <v>134</v>
       </c>
       <c r="B10">
-        <v>0.3045546881646484</v>
+        <v>0.2723686306910577</v>
       </c>
       <c r="C10">
-        <v>0.5265346346140691</v>
+        <v>0.472698845466142</v>
       </c>
       <c r="D10">
-        <v>0.5607580603302239</v>
+        <v>0.5092297912327374</v>
       </c>
       <c r="E10">
-        <v>0.5607580603302239</v>
+        <v>0.5092297912327374</v>
       </c>
       <c r="F10">
-        <v>0.562070836172213</v>
+        <v>0.5170494018567254</v>
       </c>
       <c r="G10">
-        <v>0.5730475987923447</v>
+        <v>0.533299899268482</v>
       </c>
       <c r="H10">
-        <v>0.5762327597819725</v>
+        <v>0.5427529834852263</v>
       </c>
       <c r="I10">
-        <v>0.577845161828364</v>
+        <v>0.5508339887764421</v>
       </c>
       <c r="J10">
-        <v>0.577845161828364</v>
+        <v>0.5508339887764421</v>
       </c>
       <c r="K10">
-        <v>0.577845161828364</v>
+        <v>0.5508339887764421</v>
       </c>
       <c r="L10">
-        <v>0.577845161828364</v>
+        <v>0.5508339887764421</v>
       </c>
       <c r="M10">
-        <v>0.5915429213470721</v>
+        <v>0.5694582908434008</v>
       </c>
       <c r="N10">
-        <v>0.6415199024287569</v>
+        <v>0.6197326786118025</v>
       </c>
       <c r="O10">
-        <v>0.7253491600879169</v>
+        <v>0.6995398790676581</v>
       </c>
       <c r="P10">
-        <v>0.7340577340815729</v>
+        <v>0.7138116029191722</v>
       </c>
       <c r="Q10">
-        <v>0.7340577340815729</v>
+        <v>0.7138116029191722</v>
       </c>
       <c r="R10">
-        <v>0.7340577340815729</v>
+        <v>0.7148368313536057</v>
       </c>
       <c r="S10">
-        <v>0.7853480493659371</v>
+        <v>0.7662569752402105</v>
       </c>
       <c r="T10">
-        <v>0.8826307854640362</v>
+        <v>0.8578010247030325</v>
       </c>
       <c r="U10">
-        <v>0.9441450844580435</v>
+        <v>0.9181405981330373</v>
       </c>
       <c r="V10">
-        <v>0.9441450844580435</v>
+        <v>0.9181405981330373</v>
       </c>
       <c r="W10">
-        <v>0.9441450844580435</v>
+        <v>0.9181405981330373</v>
       </c>
       <c r="X10">
-        <v>0.9701869402011757</v>
+        <v>0.9475339213249857</v>
       </c>
       <c r="Y10">
-        <v>0.9927650683416428</v>
+        <v>0.9739054796954233</v>
       </c>
       <c r="Z10">
-        <v>0.9927650683416428</v>
+        <v>0.9803395438706086</v>
       </c>
       <c r="AA10">
-        <v>0.9955876971391392</v>
+        <v>0.9894763540755037</v>
       </c>
       <c r="AB10">
-        <v>0.9955876971391392</v>
+        <v>0.9894763540755037</v>
       </c>
       <c r="AC10">
-        <v>0.9955876971391392</v>
+        <v>0.9894763540755037</v>
       </c>
       <c r="AD10">
-        <v>0.9955876971391392</v>
+        <v>0.9894763540755037</v>
       </c>
       <c r="AE10">
-        <v>0.9955876971391392</v>
+        <v>0.9894763540755037</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -8986,229 +8986,229 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.2592769101764228</v>
+        <v>0.2230194153683032</v>
       </c>
       <c r="BA11">
-        <v>0.2592769101764228</v>
+        <v>0.2260492096176228</v>
       </c>
       <c r="BB11">
-        <v>0.6096282156314387</v>
+        <v>0.5238944720853328</v>
       </c>
       <c r="BC11">
-        <v>0.6501452107888958</v>
+        <v>0.5671828455662149</v>
       </c>
       <c r="BD11">
-        <v>0.6501452107888958</v>
+        <v>0.5744841623486575</v>
       </c>
       <c r="BE11">
-        <v>0.7312990540572948</v>
+        <v>0.6511593793441171</v>
       </c>
       <c r="BF11">
-        <v>0.7509125266368084</v>
+        <v>0.6772736197498181</v>
       </c>
       <c r="BG11">
-        <v>0.7509125266368084</v>
+        <v>0.6776749489258015</v>
       </c>
       <c r="BH11">
-        <v>0.7509125266368084</v>
+        <v>0.6813062560630447</v>
       </c>
       <c r="BI11">
-        <v>0.8763034429271728</v>
+        <v>0.794326226728748</v>
       </c>
       <c r="BJ11">
-        <v>0.8806548702033927</v>
+        <v>0.8079013175217049</v>
       </c>
       <c r="BK11">
-        <v>0.9028194895194332</v>
+        <v>0.8361115555461832</v>
       </c>
       <c r="BL11">
-        <v>0.9443216281532291</v>
+        <v>0.8802093134309475</v>
       </c>
       <c r="BM11">
-        <v>0.9443216281532291</v>
+        <v>0.880252348264749</v>
       </c>
       <c r="BN11">
-        <v>0.9668404480093871</v>
+        <v>0.9087535940458672</v>
       </c>
       <c r="BO11">
-        <v>0.9668404480093871</v>
+        <v>0.9150865407218038</v>
       </c>
       <c r="BP11">
-        <v>0.9668404480093871</v>
+        <v>0.9176856713718896</v>
       </c>
       <c r="BQ11">
-        <v>0.9668404480093871</v>
+        <v>0.9184754118097952</v>
       </c>
       <c r="BR11">
-        <v>0.9668404480093871</v>
+        <v>0.9193325099381688</v>
       </c>
       <c r="BS11">
-        <v>0.9668404480093871</v>
+        <v>0.9193646063115676</v>
       </c>
       <c r="BT11">
-        <v>0.9668404480093871</v>
+        <v>0.9227566657824392</v>
       </c>
       <c r="BU11">
-        <v>0.9668404480093871</v>
+        <v>0.9259866581803353</v>
       </c>
       <c r="BV11">
-        <v>0.9668404480093871</v>
+        <v>0.9263662821091108</v>
       </c>
       <c r="BW11">
-        <v>0.9901663817157527</v>
+        <v>0.9555306448657819</v>
       </c>
       <c r="BX11">
-        <v>0.9901663817157527</v>
+        <v>0.9579684834172699</v>
       </c>
       <c r="BY11">
-        <v>0.9901663817157527</v>
+        <v>0.9660781949195535</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999999</v>
+        <v>0.9841574011104945</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999999</v>
+        <v>0.9891420284347742</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999999</v>
+        <v>0.9891422605126011</v>
       </c>
       <c r="CC11">
-        <v>0.9999999999999999</v>
+        <v>0.9891978348785391</v>
       </c>
       <c r="CD11">
-        <v>0.9999999999999999</v>
+        <v>0.9913873437331517</v>
       </c>
       <c r="CE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CX11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CY11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CZ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DA11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DB11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DC11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.618083820235991</v>
+        <v>0.5264260969548967</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -9317,16 +9317,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5430932981655407</v>
+        <v>0.5679704893822547</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -9358,16 +9358,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5382894141461619</v>
+        <v>0.5233860273850613</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5838050483937877</v>
+        <v>0.5058136796787165</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6187539368751271</v>
+        <v>0.5326298053626091</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6315121283380056</v>
+        <v>0.5316560442737672</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6021506967579715</v>
+        <v>0.5100051977118101</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -9566,10 +9566,10 @@
         <v>12</v>
       </c>
       <c r="E9">
-        <v>0.3558730213780589</v>
+        <v>0.3256140977624696</v>
       </c>
       <c r="F9">
-        <v>0.5402965653304584</v>
+        <v>0.5224700334658654</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -9604,16 +9604,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.2723686306910577</v>
+      </c>
+      <c r="F10">
+        <v>0.5092297912327374</v>
+      </c>
+      <c r="G10">
         <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0.3045546881646484</v>
-      </c>
-      <c r="F10">
-        <v>0.5265346346140691</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
       </c>
       <c r="H10">
         <v>20</v>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6096282156314387</v>
+        <v>0.5238944720853328</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -9740,16 +9740,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7694692320015831</v>
+        <v>0.7026038685197702</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -9781,16 +9781,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7043201979638709</v>
+        <v>0.7314724404931482</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8739896230412217</v>
+        <v>0.8166586736750914</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -9863,16 +9863,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7343862707436721</v>
+        <v>0.705196277165789</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -9904,16 +9904,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7435251492241034</v>
+        <v>0.7305365210832041</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -9945,16 +9945,16 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7201360183339449</v>
+        <v>0.7346982817774508</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.828790343678515</v>
+        <v>0.7418526027076126</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -10027,16 +10027,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>0.3558730213780589</v>
+        <v>0.3256140977624696</v>
       </c>
       <c r="F9">
-        <v>0.7206717577870303</v>
+        <v>0.7255121583782917</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>20</v>
@@ -10068,16 +10068,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0.2723686306910577</v>
+      </c>
+      <c r="F10">
+        <v>0.7138116029191722</v>
+      </c>
+      <c r="G10">
         <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0.3045546881646484</v>
-      </c>
-      <c r="F10">
-        <v>0.7253491600879169</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
       </c>
       <c r="H10">
         <v>20</v>
@@ -10109,16 +10109,16 @@
         <v>49</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7312990540572948</v>
+        <v>0.794326226728748</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -10204,16 +10204,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8048824515340554</v>
+        <v>0.8410968941656142</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8992411995839882</v>
+        <v>0.852959574929671</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8739896230412217</v>
+        <v>0.8166586736750914</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8666382971977546</v>
+        <v>0.818077776555288</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -10368,16 +10368,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8066678122462005</v>
+        <v>0.8753388292820026</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -10409,16 +10409,16 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8335725291371002</v>
+        <v>0.8183991383182392</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -10450,16 +10450,16 @@
         <v>89</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.828790343678515</v>
+        <v>0.8483565804630315</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -10494,10 +10494,10 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>0.3558730213780589</v>
+        <v>0.3256140977624696</v>
       </c>
       <c r="F9">
-        <v>0.8313751837613809</v>
+        <v>0.8065256357158943</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -10535,10 +10535,10 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <v>0.3045546881646484</v>
+        <v>0.2723686306910577</v>
       </c>
       <c r="F10">
-        <v>0.8826307854640362</v>
+        <v>0.8578010247030325</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -10573,16 +10573,16 @@
         <v>49</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8763034429271728</v>
+        <v>0.8079013175217049</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -10668,16 +10668,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9123219578976391</v>
+        <v>0.9007058731764125</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9773617450667957</v>
+        <v>0.9271157452031572</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9768860522855517</v>
+        <v>0.9199394131446523</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9912984052651502</v>
+        <v>0.9306554009696474</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -10832,16 +10832,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9273879465304012</v>
+        <v>0.9146079208223089</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -10873,16 +10873,16 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9011741111268912</v>
+        <v>0.9245813366248732</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -10914,16 +10914,16 @@
         <v>89</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9247620617552846</v>
+        <v>0.9104203347053635</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -10958,10 +10958,10 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>0.3558730213780589</v>
+        <v>0.3256140977624696</v>
       </c>
       <c r="F9">
-        <v>0.9249975592816577</v>
+        <v>0.906223938914262</v>
       </c>
       <c r="G9">
         <v>21</v>
@@ -10999,10 +10999,10 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>0.3045546881646484</v>
+        <v>0.2723686306910577</v>
       </c>
       <c r="F10">
-        <v>0.9441450844580435</v>
+        <v>0.9181405981330373</v>
       </c>
       <c r="G10">
         <v>19</v>
@@ -11037,16 +11037,16 @@
         <v>49</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9028194895194332</v>
+        <v>0.9087535940458672</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>20</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/20_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/20_455-55R22.xlsx
@@ -2016,100 +2016,100 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07835790992623795</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06362249861185562</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02965224800486704</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.006133499542440622</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.002823022500392253</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.001627482676428394</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.001077563647354629</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.01585801685232177</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.03173517408782624</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.05477974064554521</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.05696131204870119</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.01714506127667742</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.008691511114696022</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.02307491619290985</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0408078988348915</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.02690750549899238</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.05264076680157404</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.05950669632652276</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.04242172342499846</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.03461648544914656</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.01549482237774019</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.916185223533564E-05</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.001295338640433847</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.000737472569892151</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.002315687371666489</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.007299463256658501</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.02200247085693014</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.05645326711075278</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.05312044338615413</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.05024305256128873</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.09839515334726584</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.04417263320460182</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -2256,100 +2256,100 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1802040037029629</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.00029303490855601</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.216484675194083</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.004499580771517468</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01968345639726003</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.05930032475074898</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.006823657184081323</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.003393463501923142</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.002662479784846849</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.03004135118908167</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.03854708820318444</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.02360236069387227</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.07265879782828374</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.001610092473027443</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.1568543070916621</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.02865204325914033</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.07462869621042069</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.02330665925466352</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01015574294098501</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>3.446935391569198E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.000210751759966172</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.01285765839612315</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.004712445374907431</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0009950823195708325</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>2.519718272750968E-05</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.003621663115905833</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0005201620772011712</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01214583022469258</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.01024172296427424</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0003626380280612266</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0005305249318414142</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0003400389305116147</v>
+        <v>0</v>
       </c>
       <c r="DU4">
         <v>0</v>
@@ -2435,100 +2435,100 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.1012512974384007</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.08138912804216533</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.02709627744423707</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01786752497278311</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.01941556277206519</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.02988346696964988</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.02240834288789708</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.01124822850169287</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01256590358552868</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.002084548196378632</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>5.956358067415122E-05</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.005814698877619419</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.02372697373545873</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.03153451974109404</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.03458177568558269</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>0.01914922237922466</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.02710520241187218</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.04050029862247866</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.0606945148019545</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.06401862048469344</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.07765057779296702</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.0765552887854483</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.02763542146382656</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.02887860578287694</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.01318747512921678</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.0003763982756941304</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.008239656992618388</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.01287173648700419</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.01724688283158654</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.02709627744423707</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.03357058577478918</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.0442954221082837</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -2636,100 +2636,100 @@
         <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.0414397235972116</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.2630806270126066</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.2012933290688982</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.05364909550629726</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.001190238352764568</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.04370335695455926</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.02025541867063316</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.04511906604375923</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0130341148681117</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.02243130709094735</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.04246888512389326</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0005586733277251922</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.06985394093788058</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.00097695327955818</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.1116006711348013</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.008923270608888102</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01246576125352156</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.007083692586443485</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.004279224405838725</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0005806953029109944</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01275590463982641</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.002244184492132652</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.000377997805546931</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0001606166517830405</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.003325442405765627</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>2.321932010179281E-06</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.001201726965841406</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002741142436134194</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>1.275304341272437E-06</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0006815783159268049</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.01187032110000375</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0006494428234373005</v>
+        <v>0</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3548,100 +3548,100 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.06617682710691367</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.09136209762433654</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.1238831143051169</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.0542330777131124</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.02673169211275274</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.0093836444797372</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.001775870218467219</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.0001883629286099816</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1.41568534663594E-05</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.01884129633532646</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.02683636199050433</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.03520125085810586</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.06382185415359411</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.05012650860143507</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.04695202894909914</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.07935155702606839</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.0495481642527689</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.02394777577523041</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.03590343480120611</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.01218490977789224</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.007287868406453134</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.01708403997205657</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.002597077600636203</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.001289330251223065</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.001879695587878227</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.004719079180776529</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.002748154014592074</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.003594243096515495</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.02412475418085674</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.03196925681236447</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>0.04545721510443872</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.040785299928465</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -3773,100 +3773,100 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.14584622503048</v>
+        <v>0</v>
       </c>
       <c r="CO8">
-        <v>0.104112134841501</v>
+        <v>0</v>
       </c>
       <c r="CP8">
-        <v>0.260046837839829</v>
+        <v>0</v>
       </c>
       <c r="CQ8">
-        <v>0.0419772576669443</v>
+        <v>0</v>
       </c>
       <c r="CR8">
-        <v>0.0005882564023084938</v>
+        <v>0</v>
       </c>
       <c r="CS8">
-        <v>0.02923237307107321</v>
+        <v>0</v>
       </c>
       <c r="CT8">
-        <v>0.02265675527316096</v>
+        <v>0</v>
       </c>
       <c r="CU8">
-        <v>0.01437951576595625</v>
+        <v>0</v>
       </c>
       <c r="CV8">
-        <v>0.0005930643140023797</v>
+        <v>0</v>
       </c>
       <c r="CW8">
-        <v>0.122420182502357</v>
+        <v>0</v>
       </c>
       <c r="CX8">
-        <v>0.03851413654231906</v>
+        <v>0</v>
       </c>
       <c r="CY8">
-        <v>0.01961600011603389</v>
+        <v>0</v>
       </c>
       <c r="CZ8">
-        <v>0.04837384109706605</v>
+        <v>0</v>
       </c>
       <c r="DA8">
-        <v>0.0004882274881135669</v>
+        <v>0</v>
       </c>
       <c r="DB8">
-        <v>0.06157552675421839</v>
+        <v>0</v>
       </c>
       <c r="DC8">
-        <v>1.470227239889956E-05</v>
+        <v>0</v>
       </c>
       <c r="DD8">
-        <v>0.01024694633098352</v>
+        <v>0</v>
       </c>
       <c r="DE8">
-        <v>0.006348813311121298</v>
+        <v>0</v>
       </c>
       <c r="DF8">
-        <v>0.00461369579762668</v>
+        <v>0</v>
       </c>
       <c r="DG8">
-        <v>0.005143365308725611</v>
+        <v>0</v>
       </c>
       <c r="DH8">
-        <v>0.01240573262854361</v>
+        <v>0</v>
       </c>
       <c r="DI8">
-        <v>0.01137202225888424</v>
+        <v>0</v>
       </c>
       <c r="DJ8">
-        <v>0.003051128239303343</v>
+        <v>0</v>
       </c>
       <c r="DK8">
-        <v>0.001932049517670346</v>
+        <v>0</v>
       </c>
       <c r="DL8">
-        <v>0.0004853416986301422</v>
+        <v>0</v>
       </c>
       <c r="DM8">
-        <v>0.008707667220223965</v>
+        <v>0</v>
       </c>
       <c r="DN8">
-        <v>0.01437579068354306</v>
+        <v>0</v>
       </c>
       <c r="DO8">
-        <v>0.008519514205659389</v>
+        <v>0</v>
       </c>
       <c r="DP8">
-        <v>0.0007028352168332861</v>
+        <v>0</v>
       </c>
       <c r="DQ8">
-        <v>0.000198377104136292</v>
+        <v>0</v>
       </c>
       <c r="DR8">
-        <v>0.0007820592410294135</v>
+        <v>0</v>
       </c>
       <c r="DS8">
-        <v>0.0006796242593234319</v>
+        <v>0</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -4697,196 +4697,196 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.1275403450630464</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.08814000549761902</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.08431381251669401</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.06841799137725796</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.02577053458693233</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.0122280346958066</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.02065662630924244</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.01584515350468682</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.02853937074082839</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.03131563610962761</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.003199998270129683</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.003019404700761938</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.004987735305616736</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.0134879091973283</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.01307440293132751</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.02197582474548192</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.02920844894788462</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.02859842646782519</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.03345129636979016</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.06068907727558333</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.04622583695449193</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.04811247954766738</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.06581768833922073</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.03057976445230843</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.01787589729692115</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.006350311129433358</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.002505313035139544</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>0.004804721752180084</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.009350844012315576</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.01584515350468682</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>0.02203605336012898</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>0.01603590200203501</v>
       </c>
       <c r="AZ11">
-        <v>0.2230194153683032</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>0.003029794249319589</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.29784526246771</v>
+        <v>0</v>
       </c>
       <c r="BC11">
-        <v>0.04328837348088212</v>
+        <v>0</v>
       </c>
       <c r="BD11">
-        <v>0.007301316782442628</v>
+        <v>0</v>
       </c>
       <c r="BE11">
-        <v>0.07667521699545959</v>
+        <v>0</v>
       </c>
       <c r="BF11">
-        <v>0.02611424040570105</v>
+        <v>0</v>
       </c>
       <c r="BG11">
-        <v>0.0004013291759833063</v>
+        <v>0</v>
       </c>
       <c r="BH11">
-        <v>0.003631307137243256</v>
+        <v>0</v>
       </c>
       <c r="BI11">
-        <v>0.1130199706657033</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0.01357509079295698</v>
+        <v>0</v>
       </c>
       <c r="BK11">
-        <v>0.02821023802447835</v>
+        <v>0</v>
       </c>
       <c r="BL11">
-        <v>0.0440977578847643</v>
+        <v>0</v>
       </c>
       <c r="BM11">
-        <v>4.303483380139027E-05</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.02850124578111823</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.006332946675936626</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0.00259913065008579</v>
+        <v>0</v>
       </c>
       <c r="BQ11">
-        <v>0.000789740437905566</v>
+        <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.0008570981283736624</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>3.209637339871037E-05</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>0.003392059470871622</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>0.003229992397896159</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>0.0003796239287754585</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>0.02916436275667109</v>
+        <v>0</v>
       </c>
       <c r="BX11">
-        <v>0.00243783855148801</v>
+        <v>0</v>
       </c>
       <c r="BY11">
-        <v>0.008109711502283515</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
-        <v>0.01807920619094101</v>
+        <v>0</v>
       </c>
       <c r="CA11">
-        <v>0.004984627324279639</v>
+        <v>0</v>
       </c>
       <c r="CB11">
-        <v>2.320778269532873E-07</v>
+        <v>0</v>
       </c>
       <c r="CC11">
-        <v>5.55743659379272E-05</v>
+        <v>0</v>
       </c>
       <c r="CD11">
-        <v>0.002189508854612637</v>
+        <v>0</v>
       </c>
       <c r="CE11">
-        <v>0.008612656266848305</v>
+        <v>0</v>
       </c>
       <c r="CF11">
         <v>0</v>
@@ -6209,337 +6209,337 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07835790992623795</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1419804085380936</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1716326565429606</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1777661560854013</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.1805891785857935</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.1822166612622219</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.1832942249095765</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.1991522417618983</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.2308874158497246</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.2856671564952697</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.3426284685439709</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.3597735298206484</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.3684650409353444</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.3915399571282542</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.4323478559631457</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.4592553614621381</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.5118961282637122</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.5714028245902349</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.6138245480152335</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.64844103346438</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.6639358558421201</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.6639650176943555</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.6652603563347893</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.6659978289046815</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.6683135162763481</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.6756129795330066</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.6976154503899368</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.7540687175006896</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.8071891608868438</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.8574322134481325</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.9558273667953983</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO4">
-        <v>0.1802040037029629</v>
+        <v>1</v>
       </c>
       <c r="CP4">
-        <v>0.1804970386115189</v>
+        <v>1</v>
       </c>
       <c r="CQ4">
-        <v>0.3969817138056019</v>
+        <v>1</v>
       </c>
       <c r="CR4">
-        <v>0.4014812945771193</v>
+        <v>1</v>
       </c>
       <c r="CS4">
-        <v>0.4211647509743794</v>
+        <v>1</v>
       </c>
       <c r="CT4">
-        <v>0.4804650757251284</v>
+        <v>1</v>
       </c>
       <c r="CU4">
-        <v>0.4872887329092097</v>
+        <v>1</v>
       </c>
       <c r="CV4">
-        <v>0.4906821964111329</v>
+        <v>1</v>
       </c>
       <c r="CW4">
-        <v>0.4933446761959797</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.5233860273850613</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.5619331155882458</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.585535476282118</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.6581942741104018</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.6598043665834292</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.8166586736750914</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.8453107169342317</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.9199394131446523</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.9432460723993159</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.9534018153403009</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.9534362846942166</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.9536470364541828</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.966504694850306</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.9712171402252134</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.9722122225447842</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.9722374197275118</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.9758590828434176</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.9763792449206188</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.9885250751453114</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.9987667981095857</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.9991294361376469</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.9996599610694884</v>
+        <v>1</v>
       </c>
       <c r="DT4">
         <v>1</v>
@@ -6628,307 +6628,307 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.1012512974384007</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.182640425480566</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.2097367029248031</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.2276042278975862</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.2470197906696514</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.2769032576393012</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.2993116005271983</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.3105598290288912</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.3231257326144198</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.3252102808107985</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.3252698443914727</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.3310845432690921</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.3548115170045508</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.3863460367456449</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.4209278124312276</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>0.4400770348104522</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.4671822372223244</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.5076825358448031</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.5683770506467576</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.632395671131451</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.710046248924418</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.7866015377098663</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.8142369591736929</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.8431155649565698</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.8563030400857866</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.8566794383614807</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.8649190953540992</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.8777908318411034</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.8950377146726899</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.9221339921169269</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.9557045778917161</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO5">
-        <v>0.0414397235972116</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP5">
-        <v>0.3045203506098182</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ5">
-        <v>0.5058136796787165</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR5">
-        <v>0.5594627751850137</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS5">
-        <v>0.5606530135377783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT5">
-        <v>0.6043563704923376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU5">
-        <v>0.6246117891629708</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV5">
-        <v>0.66973085520673</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW5">
-        <v>0.6827649700748417</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX5">
-        <v>0.705196277165789</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY5">
-        <v>0.7476651622896823</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ5">
-        <v>0.7482238356174075</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA5">
-        <v>0.818077776555288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB5">
-        <v>0.8190547298348462</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC5">
-        <v>0.9306554009696474</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD5">
-        <v>0.9395786715785355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE5">
-        <v>0.9520444328320571</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF5">
-        <v>0.9591281254185006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG5">
-        <v>0.9634073498243393</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH5">
-        <v>0.9639880451272503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI5">
-        <v>0.9767439497670768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ5">
-        <v>0.9789881342592095</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK5">
-        <v>0.9793661320647564</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL5">
-        <v>0.9795267487165394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM5">
-        <v>0.982852191122305</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN5">
-        <v>0.9828545130543153</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO5">
-        <v>0.9840562400201567</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP5">
-        <v>0.9867973824562909</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ5">
-        <v>0.9867986577606321</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR5">
-        <v>0.987480236076559</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS5">
-        <v>0.9993505571765627</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:126">
@@ -7741,322 +7741,322 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.06617682710691367</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1575389247312502</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.2814220390363671</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.3356551167494796</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.3623868088622323</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.3717704533419695</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.3735463235604367</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.3737346864890467</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.373748843342513</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.3925901396778395</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.4194265016683438</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.4546277525264497</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.5184496066800438</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.5685761152814789</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.615528144230578</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.6948797012566463</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.7444278655094152</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.7683756412846456</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.8042790760858518</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.816463985863744</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.8237518542701971</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.8408358942422537</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.8434329718428899</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.8447223020941129</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.8466019976819912</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.8513210768627677</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.8540692308773598</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.8576634739738752</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.8817882281547319</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.9137574849670964</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>0.9592147000715351</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN8">
-        <v>0.14584622503048</v>
+        <v>1</v>
       </c>
       <c r="CO8">
-        <v>0.2499583598719811</v>
+        <v>1</v>
       </c>
       <c r="CP8">
-        <v>0.5100051977118101</v>
+        <v>1</v>
       </c>
       <c r="CQ8">
-        <v>0.5519824553787543</v>
+        <v>1</v>
       </c>
       <c r="CR8">
-        <v>0.5525707117810629</v>
+        <v>1</v>
       </c>
       <c r="CS8">
-        <v>0.5818030848521361</v>
+        <v>1</v>
       </c>
       <c r="CT8">
-        <v>0.604459840125297</v>
+        <v>1</v>
       </c>
       <c r="CU8">
-        <v>0.6188393558912532</v>
+        <v>1</v>
       </c>
       <c r="CV8">
-        <v>0.6194324202052556</v>
+        <v>1</v>
       </c>
       <c r="CW8">
-        <v>0.7418526027076126</v>
+        <v>1</v>
       </c>
       <c r="CX8">
-        <v>0.7803667392499316</v>
+        <v>1</v>
       </c>
       <c r="CY8">
-        <v>0.7999827393659655</v>
+        <v>1</v>
       </c>
       <c r="CZ8">
-        <v>0.8483565804630315</v>
+        <v>1</v>
       </c>
       <c r="DA8">
-        <v>0.8488448079511451</v>
+        <v>1</v>
       </c>
       <c r="DB8">
-        <v>0.9104203347053635</v>
+        <v>1</v>
       </c>
       <c r="DC8">
-        <v>0.9104350369777624</v>
+        <v>1</v>
       </c>
       <c r="DD8">
-        <v>0.920681983308746</v>
+        <v>1</v>
       </c>
       <c r="DE8">
-        <v>0.9270307966198672</v>
+        <v>1</v>
       </c>
       <c r="DF8">
-        <v>0.9316444924174939</v>
+        <v>1</v>
       </c>
       <c r="DG8">
-        <v>0.9367878577262195</v>
+        <v>1</v>
       </c>
       <c r="DH8">
-        <v>0.9491935903547631</v>
+        <v>1</v>
       </c>
       <c r="DI8">
-        <v>0.9605656126136474</v>
+        <v>1</v>
       </c>
       <c r="DJ8">
-        <v>0.9636167408529507</v>
+        <v>1</v>
       </c>
       <c r="DK8">
-        <v>0.965548790370621</v>
+        <v>1</v>
       </c>
       <c r="DL8">
-        <v>0.9660341320692512</v>
+        <v>1</v>
       </c>
       <c r="DM8">
-        <v>0.9747417992894751</v>
+        <v>1</v>
       </c>
       <c r="DN8">
-        <v>0.9891175899730182</v>
+        <v>1</v>
       </c>
       <c r="DO8">
-        <v>0.9976371041786777</v>
+        <v>1</v>
       </c>
       <c r="DP8">
-        <v>0.9983399393955109</v>
+        <v>1</v>
       </c>
       <c r="DQ8">
-        <v>0.9985383164996472</v>
+        <v>1</v>
       </c>
       <c r="DR8">
-        <v>0.9993203757406766</v>
+        <v>1</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -8890,193 +8890,193 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.1275403450630464</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.2156803505606654</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.2999941630773594</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.3684121544546174</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.3941826890415497</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.4064107237373563</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.4270673500465987</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.4429125035512856</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.471451874292114</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.5027675104017416</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.5059675086718713</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.5089869133726332</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.5139746486782499</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.5274625578755783</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.5405369608069058</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.5625127855523877</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.5917212345002724</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.6203196609680975</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.6537709573378877</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.7144600346134711</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.760685871567963</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.8087983511156304</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.8746160394548511</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.9051958039071596</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.9230717012040808</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.9294220123335142</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.9319273253686537</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>0.9367320471208338</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.9460828911331494</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.9619280446378362</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>0.9839640979979651</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>0.2230194153683032</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0.2260492096176228</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0.5238944720853328</v>
+        <v>1</v>
       </c>
       <c r="BC11">
-        <v>0.5671828455662149</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0.5744841623486575</v>
+        <v>1</v>
       </c>
       <c r="BE11">
-        <v>0.6511593793441171</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0.6772736197498181</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0.6776749489258015</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0.6813062560630447</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0.794326226728748</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0.8079013175217049</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0.8361115555461832</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0.8802093134309475</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.880252348264749</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.9087535940458672</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.9150865407218038</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.9176856713718896</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.9184754118097952</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9193325099381688</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9193646063115676</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.9227566657824392</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0.9259866581803353</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0.9263662821091108</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.9555306448657819</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9579684834172699</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0.9660781949195535</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0.9841574011104945</v>
+        <v>1</v>
       </c>
       <c r="CA11">
-        <v>0.9891420284347742</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0.9891422605126011</v>
+        <v>1</v>
       </c>
       <c r="CC11">
-        <v>0.9891978348785391</v>
+        <v>1</v>
       </c>
       <c r="CD11">
-        <v>0.9913873437331517</v>
+        <v>1</v>
       </c>
       <c r="CE11">
         <v>1</v>
@@ -9355,19 +9355,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5233860273850613</v>
+        <v>0.5118961282637122</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -9396,19 +9396,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5058136796787165</v>
+        <v>0.5076825358448031</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -9519,19 +9519,19 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5100051977118101</v>
+        <v>0.5184496066800438</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -9642,19 +9642,19 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5238944720853328</v>
+        <v>0.5027675104017416</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -9819,19 +9819,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8166586736750914</v>
+        <v>0.7540687175006896</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -9860,19 +9860,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.705196277165789</v>
+        <v>0.710046248924418</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -9983,19 +9983,19 @@
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7418526027076126</v>
+        <v>0.7444278655094152</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -10106,19 +10106,19 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.794326226728748</v>
+        <v>0.7144600346134711</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -10283,19 +10283,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8166586736750914</v>
+        <v>0.8071891608868438</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10324,19 +10324,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.818077776555288</v>
+        <v>0.8142369591736929</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10447,19 +10447,19 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8483565804630315</v>
+        <v>0.8042790760858518</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -10570,19 +10570,19 @@
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8079013175217049</v>
+        <v>0.8087983511156304</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -10747,19 +10747,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9199394131446523</v>
+        <v>0.9558273667953983</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10788,19 +10788,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9306554009696474</v>
+        <v>0.9221339921169269</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10911,19 +10911,19 @@
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9104203347053635</v>
+        <v>0.9137574849670964</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -11034,19 +11034,19 @@
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9087535940458672</v>
+        <v>0.9051958039071596</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H11">
         <v>20</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/20_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/20_455-55R22.xlsx
@@ -2016,100 +2016,100 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.07835790992623795</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.06362249861185562</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02965224800486704</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.006133499542440622</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.002823022500392253</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001627482676428394</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001077563647354629</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01585801685232177</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03173517408782624</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.05477974064554521</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.05696131204870119</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01714506127667742</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.008691511114696022</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02307491619290985</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0408078988348915</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.02690750549899238</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.05264076680157404</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.05950669632652276</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.04242172342499846</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.03461648544914656</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01549482237774019</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.916185223533564E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001295338640433847</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.000737472569892151</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002315687371666489</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.007299463256658501</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.02200247085693014</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.05645326711075278</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.05312044338615413</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.05024305256128873</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.09839515334726584</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.04417263320460182</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -2256,100 +2256,100 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>0.1802040037029629</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>0.00029303490855601</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>0.216484675194083</v>
       </c>
       <c r="CR4">
-        <v>0</v>
+        <v>0.004499580771517468</v>
       </c>
       <c r="CS4">
-        <v>0</v>
+        <v>0.01968345639726003</v>
       </c>
       <c r="CT4">
-        <v>0</v>
+        <v>0.05930032475074898</v>
       </c>
       <c r="CU4">
-        <v>0</v>
+        <v>0.006823657184081323</v>
       </c>
       <c r="CV4">
-        <v>0</v>
+        <v>0.003393463501923142</v>
       </c>
       <c r="CW4">
-        <v>0</v>
+        <v>0.002662479784846849</v>
       </c>
       <c r="CX4">
-        <v>0</v>
+        <v>0.03004135118908167</v>
       </c>
       <c r="CY4">
-        <v>0</v>
+        <v>0.03854708820318444</v>
       </c>
       <c r="CZ4">
-        <v>0</v>
+        <v>0.02360236069387227</v>
       </c>
       <c r="DA4">
-        <v>0</v>
+        <v>0.07265879782828374</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>0.001610092473027443</v>
       </c>
       <c r="DC4">
-        <v>0</v>
+        <v>0.1568543070916621</v>
       </c>
       <c r="DD4">
-        <v>0</v>
+        <v>0.02865204325914033</v>
       </c>
       <c r="DE4">
-        <v>0</v>
+        <v>0.07462869621042069</v>
       </c>
       <c r="DF4">
-        <v>0</v>
+        <v>0.02330665925466352</v>
       </c>
       <c r="DG4">
-        <v>0</v>
+        <v>0.01015574294098501</v>
       </c>
       <c r="DH4">
-        <v>0</v>
+        <v>3.446935391569198E-05</v>
       </c>
       <c r="DI4">
-        <v>0</v>
+        <v>0.000210751759966172</v>
       </c>
       <c r="DJ4">
-        <v>0</v>
+        <v>0.01285765839612315</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>0.004712445374907431</v>
       </c>
       <c r="DL4">
-        <v>0</v>
+        <v>0.0009950823195708325</v>
       </c>
       <c r="DM4">
-        <v>0</v>
+        <v>2.519718272750968E-05</v>
       </c>
       <c r="DN4">
-        <v>0</v>
+        <v>0.003621663115905833</v>
       </c>
       <c r="DO4">
-        <v>0</v>
+        <v>0.0005201620772011712</v>
       </c>
       <c r="DP4">
-        <v>0</v>
+        <v>0.01214583022469258</v>
       </c>
       <c r="DQ4">
-        <v>0</v>
+        <v>0.01024172296427424</v>
       </c>
       <c r="DR4">
-        <v>0</v>
+        <v>0.0003626380280612266</v>
       </c>
       <c r="DS4">
-        <v>0</v>
+        <v>0.0005305249318414142</v>
       </c>
       <c r="DT4">
-        <v>0</v>
+        <v>0.0003400389305116147</v>
       </c>
       <c r="DU4">
         <v>0</v>
@@ -2435,100 +2435,100 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.1012512974384007</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.08138912804216533</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02709627744423707</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01786752497278311</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01941556277206519</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02988346696964988</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.02240834288789708</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01124822850169287</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01256590358552868</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.002084548196378632</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>5.956358067415122E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.005814698877619419</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.02372697373545873</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.03153451974109404</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.03458177568558269</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.01914922237922466</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.02710520241187218</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.04050029862247866</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0606945148019545</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.06401862048469344</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.07765057779296702</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0765552887854483</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.02763542146382656</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.02887860578287694</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.01318747512921678</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0003763982756941304</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.008239656992618388</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01287173648700419</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01724688283158654</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.02709627744423707</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.03357058577478918</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0442954221082837</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -2636,100 +2636,100 @@
         <v>0</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>0.0414397235972116</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>0.2630806270126066</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.2012933290688982</v>
       </c>
       <c r="CR5">
-        <v>0</v>
+        <v>0.05364909550629726</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>0.001190238352764568</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>0.04370335695455926</v>
       </c>
       <c r="CU5">
-        <v>0</v>
+        <v>0.02025541867063316</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>0.04511906604375923</v>
       </c>
       <c r="CW5">
-        <v>0</v>
+        <v>0.0130341148681117</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>0.02243130709094735</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>0.04246888512389326</v>
       </c>
       <c r="CZ5">
-        <v>0</v>
+        <v>0.0005586733277251922</v>
       </c>
       <c r="DA5">
-        <v>0</v>
+        <v>0.06985394093788058</v>
       </c>
       <c r="DB5">
-        <v>0</v>
+        <v>0.00097695327955818</v>
       </c>
       <c r="DC5">
-        <v>0</v>
+        <v>0.1116006711348013</v>
       </c>
       <c r="DD5">
-        <v>0</v>
+        <v>0.008923270608888102</v>
       </c>
       <c r="DE5">
-        <v>0</v>
+        <v>0.01246576125352156</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>0.007083692586443485</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>0.004279224405838725</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>0.0005806953029109944</v>
       </c>
       <c r="DI5">
-        <v>0</v>
+        <v>0.01275590463982641</v>
       </c>
       <c r="DJ5">
-        <v>0</v>
+        <v>0.002244184492132652</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>0.000377997805546931</v>
       </c>
       <c r="DL5">
-        <v>0</v>
+        <v>0.0001606166517830405</v>
       </c>
       <c r="DM5">
-        <v>0</v>
+        <v>0.003325442405765627</v>
       </c>
       <c r="DN5">
-        <v>0</v>
+        <v>2.321932010179281E-06</v>
       </c>
       <c r="DO5">
-        <v>0</v>
+        <v>0.001201726965841406</v>
       </c>
       <c r="DP5">
-        <v>0</v>
+        <v>0.002741142436134194</v>
       </c>
       <c r="DQ5">
-        <v>0</v>
+        <v>1.275304341272437E-06</v>
       </c>
       <c r="DR5">
-        <v>0</v>
+        <v>0.0006815783159268049</v>
       </c>
       <c r="DS5">
-        <v>0</v>
+        <v>0.01187032110000375</v>
       </c>
       <c r="DT5">
-        <v>0</v>
+        <v>0.0006494428234373005</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3548,100 +3548,100 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.06617682710691367</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.09136209762433654</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.1238831143051169</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.0542330777131124</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.02673169211275274</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0093836444797372</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.001775870218467219</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.0001883629286099816</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>1.41568534663594E-05</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.01884129633532646</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.02683636199050433</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03520125085810586</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.06382185415359411</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.05012650860143507</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.04695202894909914</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.07935155702606839</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.0495481642527689</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.02394777577523041</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.03590343480120611</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.01218490977789224</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.007287868406453134</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>0.01708403997205657</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.002597077600636203</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.001289330251223065</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0.001879695587878227</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.004719079180776529</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0.002748154014592074</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0.003594243096515495</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.02412475418085674</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>0.03196925681236447</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>0.04545721510443872</v>
+        <v>0</v>
       </c>
       <c r="AV8">
-        <v>0.040785299928465</v>
+        <v>0</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -3773,100 +3773,100 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0</v>
+        <v>0.14584622503048</v>
       </c>
       <c r="CO8">
-        <v>0</v>
+        <v>0.104112134841501</v>
       </c>
       <c r="CP8">
-        <v>0</v>
+        <v>0.260046837839829</v>
       </c>
       <c r="CQ8">
-        <v>0</v>
+        <v>0.0419772576669443</v>
       </c>
       <c r="CR8">
-        <v>0</v>
+        <v>0.0005882564023084938</v>
       </c>
       <c r="CS8">
-        <v>0</v>
+        <v>0.02923237307107321</v>
       </c>
       <c r="CT8">
-        <v>0</v>
+        <v>0.02265675527316096</v>
       </c>
       <c r="CU8">
-        <v>0</v>
+        <v>0.01437951576595625</v>
       </c>
       <c r="CV8">
-        <v>0</v>
+        <v>0.0005930643140023797</v>
       </c>
       <c r="CW8">
-        <v>0</v>
+        <v>0.122420182502357</v>
       </c>
       <c r="CX8">
-        <v>0</v>
+        <v>0.03851413654231906</v>
       </c>
       <c r="CY8">
-        <v>0</v>
+        <v>0.01961600011603389</v>
       </c>
       <c r="CZ8">
-        <v>0</v>
+        <v>0.04837384109706605</v>
       </c>
       <c r="DA8">
-        <v>0</v>
+        <v>0.0004882274881135669</v>
       </c>
       <c r="DB8">
-        <v>0</v>
+        <v>0.06157552675421839</v>
       </c>
       <c r="DC8">
-        <v>0</v>
+        <v>1.470227239889956E-05</v>
       </c>
       <c r="DD8">
-        <v>0</v>
+        <v>0.01024694633098352</v>
       </c>
       <c r="DE8">
-        <v>0</v>
+        <v>0.006348813311121298</v>
       </c>
       <c r="DF8">
-        <v>0</v>
+        <v>0.00461369579762668</v>
       </c>
       <c r="DG8">
-        <v>0</v>
+        <v>0.005143365308725611</v>
       </c>
       <c r="DH8">
-        <v>0</v>
+        <v>0.01240573262854361</v>
       </c>
       <c r="DI8">
-        <v>0</v>
+        <v>0.01137202225888424</v>
       </c>
       <c r="DJ8">
-        <v>0</v>
+        <v>0.003051128239303343</v>
       </c>
       <c r="DK8">
-        <v>0</v>
+        <v>0.001932049517670346</v>
       </c>
       <c r="DL8">
-        <v>0</v>
+        <v>0.0004853416986301422</v>
       </c>
       <c r="DM8">
-        <v>0</v>
+        <v>0.008707667220223965</v>
       </c>
       <c r="DN8">
-        <v>0</v>
+        <v>0.01437579068354306</v>
       </c>
       <c r="DO8">
-        <v>0</v>
+        <v>0.008519514205659389</v>
       </c>
       <c r="DP8">
-        <v>0</v>
+        <v>0.0007028352168332861</v>
       </c>
       <c r="DQ8">
-        <v>0</v>
+        <v>0.000198377104136292</v>
       </c>
       <c r="DR8">
-        <v>0</v>
+        <v>0.0007820592410294135</v>
       </c>
       <c r="DS8">
-        <v>0</v>
+        <v>0.0006796242593234319</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -4697,196 +4697,196 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.1275403450630464</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.08814000549761902</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.08431381251669401</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.06841799137725796</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.02577053458693233</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.0122280346958066</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.02065662630924244</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.01584515350468682</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02853937074082839</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.03131563610962761</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.003199998270129683</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.003019404700761938</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.004987735305616736</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.0134879091973283</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.01307440293132751</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.02197582474548192</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.02920844894788462</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.02859842646782519</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.03345129636979016</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.06068907727558333</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.04622583695449193</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.04811247954766738</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.06581768833922073</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.03057976445230843</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.01787589729692115</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.006350311129433358</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0.002505313035139544</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>0.004804721752180084</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.009350844012315576</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>0.01584515350468682</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>0.02203605336012898</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>0.01603590200203501</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>0.2230194153683032</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>0.003029794249319589</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>0.29784526246771</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>0.04328837348088212</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>0.007301316782442628</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>0.07667521699545959</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>0.02611424040570105</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>0.0004013291759833063</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>0.003631307137243256</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>0.1130199706657033</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>0.01357509079295698</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>0.02821023802447835</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>0.0440977578847643</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>4.303483380139027E-05</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.02850124578111823</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.006332946675936626</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>0.00259913065008579</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.000789740437905566</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.0008570981283736624</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>3.209637339871037E-05</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.003392059470871622</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>0.003229992397896159</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>0.0003796239287754585</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>0.02916436275667109</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>0.00243783855148801</v>
       </c>
       <c r="BY11">
-        <v>0</v>
+        <v>0.008109711502283515</v>
       </c>
       <c r="BZ11">
-        <v>0</v>
+        <v>0.01807920619094101</v>
       </c>
       <c r="CA11">
-        <v>0</v>
+        <v>0.004984627324279639</v>
       </c>
       <c r="CB11">
-        <v>0</v>
+        <v>2.320778269532873E-07</v>
       </c>
       <c r="CC11">
-        <v>0</v>
+        <v>5.55743659379272E-05</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>0.002189508854612637</v>
       </c>
       <c r="CE11">
-        <v>0</v>
+        <v>0.008612656266848305</v>
       </c>
       <c r="CF11">
         <v>0</v>
@@ -6209,337 +6209,337 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.07835790992623795</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1419804085380936</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1716326565429606</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1777661560854013</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1805891785857935</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.1822166612622219</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1832942249095765</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1991522417618983</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.2308874158497246</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.2856671564952697</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.3426284685439709</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.3597735298206484</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.3684650409353444</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.3915399571282542</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.4323478559631457</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.4592553614621381</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.5118961282637122</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.5714028245902349</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.6138245480152335</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.64844103346438</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6639358558421201</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.6639650176943555</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.6652603563347893</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.6659978289046815</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.6683135162763481</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.6756129795330066</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.6976154503899368</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.7540687175006896</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.8071891608868438</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.8574322134481325</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.9558273667953983</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>1</v>
+        <v>0.1802040037029629</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>0.1804970386115189</v>
       </c>
       <c r="CQ4">
-        <v>1</v>
+        <v>0.3969817138056019</v>
       </c>
       <c r="CR4">
-        <v>1</v>
+        <v>0.4014812945771193</v>
       </c>
       <c r="CS4">
-        <v>1</v>
+        <v>0.4211647509743794</v>
       </c>
       <c r="CT4">
-        <v>1</v>
+        <v>0.4804650757251284</v>
       </c>
       <c r="CU4">
-        <v>1</v>
+        <v>0.4872887329092097</v>
       </c>
       <c r="CV4">
-        <v>1</v>
+        <v>0.4906821964111329</v>
       </c>
       <c r="CW4">
-        <v>1</v>
+        <v>0.4933446761959797</v>
       </c>
       <c r="CX4">
-        <v>1</v>
+        <v>0.5233860273850613</v>
       </c>
       <c r="CY4">
-        <v>1</v>
+        <v>0.5619331155882458</v>
       </c>
       <c r="CZ4">
-        <v>1</v>
+        <v>0.585535476282118</v>
       </c>
       <c r="DA4">
-        <v>1</v>
+        <v>0.6581942741104018</v>
       </c>
       <c r="DB4">
-        <v>1</v>
+        <v>0.6598043665834292</v>
       </c>
       <c r="DC4">
-        <v>1</v>
+        <v>0.8166586736750914</v>
       </c>
       <c r="DD4">
-        <v>1</v>
+        <v>0.8453107169342317</v>
       </c>
       <c r="DE4">
-        <v>1</v>
+        <v>0.9199394131446523</v>
       </c>
       <c r="DF4">
-        <v>1</v>
+        <v>0.9432460723993159</v>
       </c>
       <c r="DG4">
-        <v>1</v>
+        <v>0.9534018153403009</v>
       </c>
       <c r="DH4">
-        <v>1</v>
+        <v>0.9534362846942166</v>
       </c>
       <c r="DI4">
-        <v>1</v>
+        <v>0.9536470364541828</v>
       </c>
       <c r="DJ4">
-        <v>1</v>
+        <v>0.966504694850306</v>
       </c>
       <c r="DK4">
-        <v>1</v>
+        <v>0.9712171402252134</v>
       </c>
       <c r="DL4">
-        <v>1</v>
+        <v>0.9722122225447842</v>
       </c>
       <c r="DM4">
-        <v>1</v>
+        <v>0.9722374197275118</v>
       </c>
       <c r="DN4">
-        <v>1</v>
+        <v>0.9758590828434176</v>
       </c>
       <c r="DO4">
-        <v>1</v>
+        <v>0.9763792449206188</v>
       </c>
       <c r="DP4">
-        <v>1</v>
+        <v>0.9885250751453114</v>
       </c>
       <c r="DQ4">
-        <v>1</v>
+        <v>0.9987667981095857</v>
       </c>
       <c r="DR4">
-        <v>1</v>
+        <v>0.9991294361376469</v>
       </c>
       <c r="DS4">
-        <v>1</v>
+        <v>0.9996599610694884</v>
       </c>
       <c r="DT4">
         <v>1</v>
@@ -6628,307 +6628,307 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.1012512974384007</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.182640425480566</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.2097367029248031</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.2276042278975862</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.2470197906696514</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.2769032576393012</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.2993116005271983</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3105598290288912</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.3231257326144198</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.3252102808107985</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.3252698443914727</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.3310845432690921</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.3548115170045508</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.3863460367456449</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.4209278124312276</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.4400770348104522</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.4671822372223244</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.5076825358448031</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.5683770506467576</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.632395671131451</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.710046248924418</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.7866015377098663</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.8142369591736929</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.8431155649565698</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.8563030400857866</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.8566794383614807</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.8649190953540992</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.8777908318411034</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.8950377146726899</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.9221339921169269</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.9557045778917161</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.9999999999999999</v>
+        <v>0.0414397235972116</v>
       </c>
       <c r="CP5">
-        <v>0.9999999999999999</v>
+        <v>0.3045203506098182</v>
       </c>
       <c r="CQ5">
-        <v>0.9999999999999999</v>
+        <v>0.5058136796787165</v>
       </c>
       <c r="CR5">
-        <v>0.9999999999999999</v>
+        <v>0.5594627751850137</v>
       </c>
       <c r="CS5">
-        <v>0.9999999999999999</v>
+        <v>0.5606530135377783</v>
       </c>
       <c r="CT5">
-        <v>0.9999999999999999</v>
+        <v>0.6043563704923376</v>
       </c>
       <c r="CU5">
-        <v>0.9999999999999999</v>
+        <v>0.6246117891629708</v>
       </c>
       <c r="CV5">
-        <v>0.9999999999999999</v>
+        <v>0.66973085520673</v>
       </c>
       <c r="CW5">
-        <v>0.9999999999999999</v>
+        <v>0.6827649700748417</v>
       </c>
       <c r="CX5">
-        <v>0.9999999999999999</v>
+        <v>0.705196277165789</v>
       </c>
       <c r="CY5">
-        <v>0.9999999999999999</v>
+        <v>0.7476651622896823</v>
       </c>
       <c r="CZ5">
-        <v>0.9999999999999999</v>
+        <v>0.7482238356174075</v>
       </c>
       <c r="DA5">
-        <v>0.9999999999999999</v>
+        <v>0.818077776555288</v>
       </c>
       <c r="DB5">
-        <v>0.9999999999999999</v>
+        <v>0.8190547298348462</v>
       </c>
       <c r="DC5">
-        <v>0.9999999999999999</v>
+        <v>0.9306554009696474</v>
       </c>
       <c r="DD5">
-        <v>0.9999999999999999</v>
+        <v>0.9395786715785355</v>
       </c>
       <c r="DE5">
-        <v>0.9999999999999999</v>
+        <v>0.9520444328320571</v>
       </c>
       <c r="DF5">
-        <v>0.9999999999999999</v>
+        <v>0.9591281254185006</v>
       </c>
       <c r="DG5">
-        <v>0.9999999999999999</v>
+        <v>0.9634073498243393</v>
       </c>
       <c r="DH5">
-        <v>0.9999999999999999</v>
+        <v>0.9639880451272503</v>
       </c>
       <c r="DI5">
-        <v>0.9999999999999999</v>
+        <v>0.9767439497670768</v>
       </c>
       <c r="DJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9789881342592095</v>
       </c>
       <c r="DK5">
-        <v>0.9999999999999999</v>
+        <v>0.9793661320647564</v>
       </c>
       <c r="DL5">
-        <v>0.9999999999999999</v>
+        <v>0.9795267487165394</v>
       </c>
       <c r="DM5">
-        <v>0.9999999999999999</v>
+        <v>0.982852191122305</v>
       </c>
       <c r="DN5">
-        <v>0.9999999999999999</v>
+        <v>0.9828545130543153</v>
       </c>
       <c r="DO5">
-        <v>0.9999999999999999</v>
+        <v>0.9840562400201567</v>
       </c>
       <c r="DP5">
-        <v>0.9999999999999999</v>
+        <v>0.9867973824562909</v>
       </c>
       <c r="DQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9867986577606321</v>
       </c>
       <c r="DR5">
-        <v>0.9999999999999999</v>
+        <v>0.987480236076559</v>
       </c>
       <c r="DS5">
-        <v>0.9999999999999999</v>
+        <v>0.9993505571765627</v>
       </c>
       <c r="DT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:126">
@@ -7741,322 +7741,322 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.06617682710691367</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.1575389247312502</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.2814220390363671</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.3356551167494796</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.3623868088622323</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.3717704533419695</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.3735463235604367</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.3737346864890467</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.373748843342513</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.3925901396778395</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.4194265016683438</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.4546277525264497</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.5184496066800438</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.5685761152814789</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.615528144230578</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.6948797012566463</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.7444278655094152</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.7683756412846456</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.8042790760858518</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.816463985863744</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.8237518542701971</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>0.8408358942422537</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.8434329718428899</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.8447223020941129</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0.8466019976819912</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8513210768627677</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0.8540692308773598</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0.8576634739738752</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.8817882281547319</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>0.9137574849670964</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>0.9592147000715351</v>
+        <v>0</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN8">
-        <v>1</v>
+        <v>0.14584622503048</v>
       </c>
       <c r="CO8">
-        <v>1</v>
+        <v>0.2499583598719811</v>
       </c>
       <c r="CP8">
-        <v>1</v>
+        <v>0.5100051977118101</v>
       </c>
       <c r="CQ8">
-        <v>1</v>
+        <v>0.5519824553787543</v>
       </c>
       <c r="CR8">
-        <v>1</v>
+        <v>0.5525707117810629</v>
       </c>
       <c r="CS8">
-        <v>1</v>
+        <v>0.5818030848521361</v>
       </c>
       <c r="CT8">
-        <v>1</v>
+        <v>0.604459840125297</v>
       </c>
       <c r="CU8">
-        <v>1</v>
+        <v>0.6188393558912532</v>
       </c>
       <c r="CV8">
-        <v>1</v>
+        <v>0.6194324202052556</v>
       </c>
       <c r="CW8">
-        <v>1</v>
+        <v>0.7418526027076126</v>
       </c>
       <c r="CX8">
-        <v>1</v>
+        <v>0.7803667392499316</v>
       </c>
       <c r="CY8">
-        <v>1</v>
+        <v>0.7999827393659655</v>
       </c>
       <c r="CZ8">
-        <v>1</v>
+        <v>0.8483565804630315</v>
       </c>
       <c r="DA8">
-        <v>1</v>
+        <v>0.8488448079511451</v>
       </c>
       <c r="DB8">
-        <v>1</v>
+        <v>0.9104203347053635</v>
       </c>
       <c r="DC8">
-        <v>1</v>
+        <v>0.9104350369777624</v>
       </c>
       <c r="DD8">
-        <v>1</v>
+        <v>0.920681983308746</v>
       </c>
       <c r="DE8">
-        <v>1</v>
+        <v>0.9270307966198672</v>
       </c>
       <c r="DF8">
-        <v>1</v>
+        <v>0.9316444924174939</v>
       </c>
       <c r="DG8">
-        <v>1</v>
+        <v>0.9367878577262195</v>
       </c>
       <c r="DH8">
-        <v>1</v>
+        <v>0.9491935903547631</v>
       </c>
       <c r="DI8">
-        <v>1</v>
+        <v>0.9605656126136474</v>
       </c>
       <c r="DJ8">
-        <v>1</v>
+        <v>0.9636167408529507</v>
       </c>
       <c r="DK8">
-        <v>1</v>
+        <v>0.965548790370621</v>
       </c>
       <c r="DL8">
-        <v>1</v>
+        <v>0.9660341320692512</v>
       </c>
       <c r="DM8">
-        <v>1</v>
+        <v>0.9747417992894751</v>
       </c>
       <c r="DN8">
-        <v>1</v>
+        <v>0.9891175899730182</v>
       </c>
       <c r="DO8">
-        <v>1</v>
+        <v>0.9976371041786777</v>
       </c>
       <c r="DP8">
-        <v>1</v>
+        <v>0.9983399393955109</v>
       </c>
       <c r="DQ8">
-        <v>1</v>
+        <v>0.9985383164996472</v>
       </c>
       <c r="DR8">
-        <v>1</v>
+        <v>0.9993203757406766</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -8890,193 +8890,193 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.1275403450630464</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.2156803505606654</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.2999941630773594</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.3684121544546174</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.3941826890415497</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.4064107237373563</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.4270673500465987</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.4429125035512856</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.471451874292114</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.5027675104017416</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.5059675086718713</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.5089869133726332</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.5139746486782499</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.5274625578755783</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.5405369608069058</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.5625127855523877</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.5917212345002724</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.6203196609680975</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.6537709573378877</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.7144600346134711</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.760685871567963</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.8087983511156304</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8746160394548511</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.9051958039071596</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.9230717012040808</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.9294220123335142</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0.9319273253686537</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>0.9367320471208338</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.9460828911331494</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>0.9619280446378362</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>0.9839640979979651</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0.2230194153683032</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0.2260492096176228</v>
       </c>
       <c r="BB11">
-        <v>1</v>
+        <v>0.5238944720853328</v>
       </c>
       <c r="BC11">
-        <v>1</v>
+        <v>0.5671828455662149</v>
       </c>
       <c r="BD11">
-        <v>1</v>
+        <v>0.5744841623486575</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>0.6511593793441171</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>0.6772736197498181</v>
       </c>
       <c r="BG11">
-        <v>1</v>
+        <v>0.6776749489258015</v>
       </c>
       <c r="BH11">
-        <v>1</v>
+        <v>0.6813062560630447</v>
       </c>
       <c r="BI11">
-        <v>1</v>
+        <v>0.794326226728748</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0.8079013175217049</v>
       </c>
       <c r="BK11">
-        <v>1</v>
+        <v>0.8361115555461832</v>
       </c>
       <c r="BL11">
-        <v>1</v>
+        <v>0.8802093134309475</v>
       </c>
       <c r="BM11">
-        <v>1</v>
+        <v>0.880252348264749</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>0.9087535940458672</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>0.9150865407218038</v>
       </c>
       <c r="BP11">
-        <v>1</v>
+        <v>0.9176856713718896</v>
       </c>
       <c r="BQ11">
-        <v>1</v>
+        <v>0.9184754118097952</v>
       </c>
       <c r="BR11">
-        <v>1</v>
+        <v>0.9193325099381688</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0.9193646063115676</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>0.9227566657824392</v>
       </c>
       <c r="BU11">
-        <v>1</v>
+        <v>0.9259866581803353</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0.9263662821091108</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0.9555306448657819</v>
       </c>
       <c r="BX11">
-        <v>1</v>
+        <v>0.9579684834172699</v>
       </c>
       <c r="BY11">
-        <v>1</v>
+        <v>0.9660781949195535</v>
       </c>
       <c r="BZ11">
-        <v>1</v>
+        <v>0.9841574011104945</v>
       </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0.9891420284347742</v>
       </c>
       <c r="CB11">
-        <v>1</v>
+        <v>0.9891422605126011</v>
       </c>
       <c r="CC11">
-        <v>1</v>
+        <v>0.9891978348785391</v>
       </c>
       <c r="CD11">
-        <v>1</v>
+        <v>0.9913873437331517</v>
       </c>
       <c r="CE11">
         <v>1</v>
@@ -9355,19 +9355,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5118961282637122</v>
+        <v>0.5233860273850613</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -9396,19 +9396,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5076825358448031</v>
+        <v>0.5058136796787165</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -9519,19 +9519,19 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5184496066800438</v>
+        <v>0.5100051977118101</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -9642,19 +9642,19 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5027675104017416</v>
+        <v>0.5238944720853328</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -9819,19 +9819,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7540687175006896</v>
+        <v>0.8166586736750914</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -9860,19 +9860,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.710046248924418</v>
+        <v>0.705196277165789</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -9983,19 +9983,19 @@
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7444278655094152</v>
+        <v>0.7418526027076126</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -10106,19 +10106,19 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7144600346134711</v>
+        <v>0.794326226728748</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -10283,19 +10283,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8071891608868438</v>
+        <v>0.8166586736750914</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10324,19 +10324,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8142369591736929</v>
+        <v>0.818077776555288</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10447,19 +10447,19 @@
         <v>0.8</v>
       </c>
       <c r="C8">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8483565804630315</v>
+      </c>
+      <c r="G8">
         <v>14</v>
-      </c>
-      <c r="D8">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8042790760858518</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -10570,19 +10570,19 @@
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8087983511156304</v>
+        <v>0.8079013175217049</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -10747,19 +10747,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9558273667953983</v>
+        <v>0.9199394131446523</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10788,19 +10788,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9221339921169269</v>
+        <v>0.9306554009696474</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10911,19 +10911,19 @@
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9137574849670964</v>
+        <v>0.9104203347053635</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -11034,19 +11034,19 @@
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9051958039071596</v>
+        <v>0.9087535940458672</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>20</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/20_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/20_455-55R22.xlsx
@@ -429,40 +429,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -472,9 +475,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -1493,100 +1493,100 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.3534607255232404</v>
+        <v>0.5329549545472948</v>
       </c>
       <c r="CO2">
-        <v>0.1729653714316563</v>
+        <v>0.2355590556162314</v>
       </c>
       <c r="CP2">
-        <v>0.1340374213113798</v>
+        <v>0.1714188300806255</v>
       </c>
       <c r="CQ2">
-        <v>0.008570529607211982</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.03356982064628172</v>
+        <v>0.005881868957053255</v>
       </c>
       <c r="CS2">
-        <v>0.0154459502916945</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.002811226636154843</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0003176361764675716</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.02888348258415199</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.03636614174356364</v>
+        <v>0.01048926968828808</v>
       </c>
       <c r="CX2">
-        <v>0.001887806170921693</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.05278078204288988</v>
+        <v>0.03753509993703355</v>
       </c>
       <c r="CZ2">
-        <v>0.02586979614804427</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.03373918286275406</v>
+        <v>0.00616092117347313</v>
       </c>
       <c r="DB2">
-        <v>0.02534248233768272</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.001052573594416121</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0004238482272980532</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0002236692291395045</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>5.22076721764093E-05</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.007974019610786016</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.01518737441211669</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>1.560309909004373E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.00108754018340912</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01832117957566548</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.001052857194471808</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.01318618086120053</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.01019268260313718</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0002354472483280357</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>2.253807396783422E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.002952065874196524</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0005177524630324969</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001454104563472956</v>
+        <v>0</v>
       </c>
       <c r="DT2">
         <v>0</v>
@@ -1882,100 +1882,100 @@
         <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.03533398239483574</v>
+        <v>0.00890843813723557</v>
       </c>
       <c r="CR3">
-        <v>0.1469379293930445</v>
+        <v>0.1953014151120829</v>
       </c>
       <c r="CS3">
-        <v>0.2907774439544952</v>
+        <v>0.4355319450068363</v>
       </c>
       <c r="CT3">
-        <v>0.09492113363987928</v>
+        <v>0.1084266613609393</v>
       </c>
       <c r="CU3">
-        <v>0.01195775890105459</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.03804149256453668</v>
+        <v>0.01343032911236688</v>
       </c>
       <c r="CW3">
-        <v>0.003582971044095209</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.02660669196447626</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.006822288297179124</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.03313906775980648</v>
+        <v>0.005242647777371954</v>
       </c>
       <c r="DA3">
-        <v>0.0433516805797451</v>
+        <v>0.0222990275685849</v>
       </c>
       <c r="DB3">
-        <v>0.008963539420785715</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.112523595015737</v>
+        <v>0.1378250407747387</v>
       </c>
       <c r="DD3">
-        <v>0.000426314899997608</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0737298553734886</v>
+        <v>0.07303449514984345</v>
       </c>
       <c r="DF3">
-        <v>0.0001571596453375208</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.02846803173076654</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.000261409117006439</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>9.43148740386411E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>7.45520174872396E-06</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.003202347124299211</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001131732604067239</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001574033265720761</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.001160420632816817</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002885528888486536</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.00212868912464354</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.008635547116365477</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.009095252894025244</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.008264623064110247</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002377606052678318</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001030910705753432</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.002409192754977896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:126">
@@ -2256,100 +2256,100 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1802040037029629</v>
+        <v>0.2551369013163777</v>
       </c>
       <c r="CP4">
-        <v>0.00029303490855601</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.216484675194083</v>
+        <v>0.3167633418487299</v>
       </c>
       <c r="CR4">
-        <v>0.004499580771517468</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01968345639726003</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.05930032475074898</v>
+        <v>0.04976960587051385</v>
       </c>
       <c r="CU4">
-        <v>0.006823657184081323</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.003393463501923142</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.002662479784846849</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.03004135118908167</v>
+        <v>7.023923456069686E-05</v>
       </c>
       <c r="CY4">
-        <v>0.03854708820318444</v>
+        <v>0.01451810568079572</v>
       </c>
       <c r="CZ4">
-        <v>0.02360236069387227</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.07265879782828374</v>
+        <v>0.07246034209123715</v>
       </c>
       <c r="DB4">
-        <v>0.001610092473027443</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.1568543070916621</v>
+        <v>0.2154750474828019</v>
       </c>
       <c r="DD4">
-        <v>0.02865204325914033</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.07462869621042069</v>
+        <v>0.0758064164749831</v>
       </c>
       <c r="DF4">
-        <v>0.02330665925466352</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01015574294098501</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>3.446935391569198E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.000210751759966172</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.01285765839612315</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.004712445374907431</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0009950823195708325</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>2.519718272750968E-05</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.003621663115905833</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0005201620772011712</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01214583022469258</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.01024172296427424</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0003626380280612266</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0005305249318414142</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0003400389305116147</v>
+        <v>0</v>
       </c>
       <c r="DU4">
         <v>0</v>
@@ -2636,100 +2636,100 @@
         <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.0414397235972116</v>
+        <v>0.01899627767744998</v>
       </c>
       <c r="CP5">
-        <v>0.2630806270126066</v>
+        <v>0.3870429450799713</v>
       </c>
       <c r="CQ5">
-        <v>0.2012933290688982</v>
+        <v>0.2844418062758737</v>
       </c>
       <c r="CR5">
-        <v>0.05364909550629726</v>
+        <v>0.0392705978637158</v>
       </c>
       <c r="CS5">
-        <v>0.001190238352764568</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.04370335695455926</v>
+        <v>0.0227551628857076</v>
       </c>
       <c r="CU5">
-        <v>0.02025541867063316</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.04511906604375923</v>
+        <v>0.02510602414038753</v>
       </c>
       <c r="CW5">
-        <v>0.0130341148681117</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.02243130709094735</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.04246888512389326</v>
+        <v>0.02070525586819564</v>
       </c>
       <c r="CZ5">
-        <v>0.0005586733277251922</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.06985394093788058</v>
+        <v>0.0661796172051924</v>
       </c>
       <c r="DB5">
-        <v>0.00097695327955818</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.1116006711348013</v>
+        <v>0.1355023130035061</v>
       </c>
       <c r="DD5">
-        <v>0.008923270608888102</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01246576125352156</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.007083692586443485</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.004279224405838725</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0005806953029109944</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01275590463982641</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.002244184492132652</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.000377997805546931</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0001606166517830405</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.003325442405765627</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>2.321932010179281E-06</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.001201726965841406</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002741142436134194</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>1.275304341272437E-06</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0006815783159268049</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.01187032110000375</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0006494428234373005</v>
+        <v>0</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3013,100 +3013,100 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.3297597983613985</v>
+        <v>0.5050890434838783</v>
       </c>
       <c r="CO6">
-        <v>0.05551432046428701</v>
+        <v>0.04299110083771455</v>
       </c>
       <c r="CP6">
-        <v>0.1473556865369236</v>
+        <v>0.1977418979607965</v>
       </c>
       <c r="CQ6">
-        <v>0.006821988524466679</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.02876176343992101</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.03344056928106994</v>
+        <v>0.005797287884216207</v>
       </c>
       <c r="CT6">
-        <v>0.009557935854819691</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.007794735339053832</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0004658897283973591</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.06915254591548903</v>
+        <v>0.06597122787816621</v>
       </c>
       <c r="CX6">
-        <v>0.007357096400860167</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.03455419123651734</v>
+        <v>0.007673717783603293</v>
       </c>
       <c r="CZ6">
-        <v>0.03673822491384411</v>
+        <v>0.01135376923495766</v>
       </c>
       <c r="DA6">
-        <v>0.1080640832849543</v>
+        <v>0.1315363613545882</v>
       </c>
       <c r="DB6">
-        <v>0.03926909154030635</v>
+        <v>0.01561822701259438</v>
       </c>
       <c r="DC6">
-        <v>0.03963060314524636</v>
+        <v>0.01622736656948497</v>
       </c>
       <c r="DD6">
-        <v>0.0005399684806687836</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.01008495192004833</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.00101011184188651</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.005606515533599876</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>7.958329576344695E-05</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.003216006727646202</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.006270161250050102</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.001275667846647043</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0009267018785844975</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>2.46965273140151E-06</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.002608158168333748</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.003941327532438683</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.002790836180260572</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.003746778930566271</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.003661174493951884</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>1.062299267368391E-06</v>
+        <v>0</v>
       </c>
       <c r="DT6">
         <v>0</v>
@@ -3273,100 +3273,100 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.2311289384491287</v>
+        <v>0.3542616907138852</v>
       </c>
       <c r="BA7">
-        <v>0.0374305963793234</v>
+        <v>0.01308800044712304</v>
       </c>
       <c r="BB7">
-        <v>0.2630965094453151</v>
+        <v>0.4105682860573969</v>
       </c>
       <c r="BC7">
-        <v>0.007905070686787766</v>
+        <v>0</v>
       </c>
       <c r="BD7">
-        <v>0.00267078333643105</v>
+        <v>0</v>
       </c>
       <c r="BE7">
-        <v>0.08040040576975373</v>
+        <v>0.08877356534735968</v>
       </c>
       <c r="BF7">
-        <v>0.001486247560971503</v>
+        <v>0</v>
       </c>
       <c r="BG7">
-        <v>0.0004688538384750992</v>
+        <v>0</v>
       </c>
       <c r="BH7">
-        <v>0.01344189766741589</v>
+        <v>0</v>
       </c>
       <c r="BI7">
-        <v>0.09666897864384859</v>
+        <v>0.1174284778443826</v>
       </c>
       <c r="BJ7">
-        <v>0.01944281418154552</v>
+        <v>0</v>
       </c>
       <c r="BK7">
-        <v>0.0339138755329505</v>
+        <v>0.006893767621099664</v>
       </c>
       <c r="BL7">
-        <v>0.03034416682629247</v>
+        <v>0.0006062037751014088</v>
       </c>
       <c r="BM7">
-        <v>0.0008229874678974861</v>
+        <v>0</v>
       </c>
       <c r="BN7">
-        <v>0.02667302092819427</v>
+        <v>0</v>
       </c>
       <c r="BO7">
-        <v>0.003904433113832882</v>
+        <v>0</v>
       </c>
       <c r="BP7">
-        <v>0.002666134220605244</v>
+        <v>0</v>
       </c>
       <c r="BQ7">
-        <v>0.0004535735867843523</v>
+        <v>0</v>
       </c>
       <c r="BR7">
-        <v>0.00204743898913446</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>0.0009500172333334557</v>
+        <v>0</v>
       </c>
       <c r="BT7">
-        <v>0.01981930200592966</v>
+        <v>0</v>
       </c>
       <c r="BU7">
-        <v>0.008758859639048201</v>
+        <v>0</v>
       </c>
       <c r="BV7">
-        <v>0.005328755662279088</v>
+        <v>0</v>
       </c>
       <c r="BW7">
-        <v>0.03475767545959501</v>
+        <v>0.008380008193651305</v>
       </c>
       <c r="BX7">
-        <v>0.002806686075469906</v>
+        <v>0</v>
       </c>
       <c r="BY7">
-        <v>0.0227662154207776</v>
+        <v>0</v>
       </c>
       <c r="BZ7">
-        <v>0.02220606674631685</v>
+        <v>0</v>
       </c>
       <c r="CA7">
-        <v>0.006123891050518738</v>
+        <v>0</v>
       </c>
       <c r="CB7">
-        <v>0.00013669361928969</v>
+        <v>0</v>
       </c>
       <c r="CC7">
-        <v>1.814932443025453E-06</v>
+        <v>0</v>
       </c>
       <c r="CD7">
-        <v>0.009094980123352648</v>
+        <v>0</v>
       </c>
       <c r="CE7">
-        <v>0.01228231540695838</v>
+        <v>0</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -3773,100 +3773,100 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.14584622503048</v>
+        <v>0.1987527094615143</v>
       </c>
       <c r="CO8">
-        <v>0.104112134841501</v>
+        <v>0.1271512092849797</v>
       </c>
       <c r="CP8">
-        <v>0.260046837839829</v>
+        <v>0.3946821082144861</v>
       </c>
       <c r="CQ8">
-        <v>0.0419772576669443</v>
+        <v>0.02054889930679694</v>
       </c>
       <c r="CR8">
-        <v>0.0005882564023084938</v>
+        <v>0</v>
       </c>
       <c r="CS8">
-        <v>0.02923237307107321</v>
+        <v>0</v>
       </c>
       <c r="CT8">
-        <v>0.02265675527316096</v>
+        <v>0</v>
       </c>
       <c r="CU8">
-        <v>0.01437951576595625</v>
+        <v>0</v>
       </c>
       <c r="CV8">
-        <v>0.0005930643140023797</v>
+        <v>0</v>
       </c>
       <c r="CW8">
-        <v>0.122420182502357</v>
+        <v>0.1585615903879312</v>
       </c>
       <c r="CX8">
-        <v>0.03851413654231906</v>
+        <v>0.01460736166470653</v>
       </c>
       <c r="CY8">
-        <v>0.01961600011603389</v>
+        <v>0</v>
       </c>
       <c r="CZ8">
-        <v>0.04837384109706605</v>
+        <v>0.0315232602555359</v>
       </c>
       <c r="DA8">
-        <v>0.0004882274881135669</v>
+        <v>0</v>
       </c>
       <c r="DB8">
-        <v>0.06157552675421839</v>
+        <v>0.05417286142404942</v>
       </c>
       <c r="DC8">
-        <v>1.470227239889956E-05</v>
+        <v>0</v>
       </c>
       <c r="DD8">
-        <v>0.01024694633098352</v>
+        <v>0</v>
       </c>
       <c r="DE8">
-        <v>0.006348813311121298</v>
+        <v>0</v>
       </c>
       <c r="DF8">
-        <v>0.00461369579762668</v>
+        <v>0</v>
       </c>
       <c r="DG8">
-        <v>0.005143365308725611</v>
+        <v>0</v>
       </c>
       <c r="DH8">
-        <v>0.01240573262854361</v>
+        <v>0</v>
       </c>
       <c r="DI8">
-        <v>0.01137202225888424</v>
+        <v>0</v>
       </c>
       <c r="DJ8">
-        <v>0.003051128239303343</v>
+        <v>0</v>
       </c>
       <c r="DK8">
-        <v>0.001932049517670346</v>
+        <v>0</v>
       </c>
       <c r="DL8">
-        <v>0.0004853416986301422</v>
+        <v>0</v>
       </c>
       <c r="DM8">
-        <v>0.008707667220223965</v>
+        <v>0</v>
       </c>
       <c r="DN8">
-        <v>0.01437579068354306</v>
+        <v>0</v>
       </c>
       <c r="DO8">
-        <v>0.008519514205659389</v>
+        <v>0</v>
       </c>
       <c r="DP8">
-        <v>0.0007028352168332861</v>
+        <v>0</v>
       </c>
       <c r="DQ8">
-        <v>0.000198377104136292</v>
+        <v>0</v>
       </c>
       <c r="DR8">
-        <v>0.0007820592410294135</v>
+        <v>0</v>
       </c>
       <c r="DS8">
-        <v>0.0006796242593234319</v>
+        <v>0</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -3883,10 +3883,10 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>0.3256140977624696</v>
+        <v>0.4870653172255112</v>
       </c>
       <c r="C9">
-        <v>0.1033425125127403</v>
+        <v>0.1228916618980632</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.01626602248418446</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.01107643592418155</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3907,55 +3907,55 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.005386494567953324</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.005870233202843207</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.05491423701149289</v>
+        <v>0.04354592775629682</v>
       </c>
       <c r="N9">
-        <v>0.1070712190211813</v>
+        <v>0.1290008398989154</v>
       </c>
       <c r="O9">
-        <v>0.0656248076603054</v>
+        <v>0.06109431415682831</v>
       </c>
       <c r="P9">
-        <v>0.001407264510705597</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.02893883372023395</v>
+        <v>0.0009873723991004662</v>
       </c>
       <c r="S9">
-        <v>0.08101347733760256</v>
+        <v>0.08630737987870873</v>
       </c>
       <c r="T9">
-        <v>0.05528425632719579</v>
+        <v>0.04415217387898446</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.008372424792045752</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.03604162207912607</v>
+        <v>0.01262470515474174</v>
       </c>
       <c r="X9">
-        <v>0.03586193808426616</v>
+        <v>0.01233030775284959</v>
       </c>
       <c r="Y9">
-        <v>0.01155640564618545</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.01175462215944069</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -3967,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.0005890960483682455</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.02467395556291532</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.009340043584562393</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -4263,28 +4263,28 @@
         <v>134</v>
       </c>
       <c r="B10">
-        <v>0.2723686306910577</v>
+        <v>0.3974113691451512</v>
       </c>
       <c r="C10">
-        <v>0.2003302147750844</v>
+        <v>0.2798779863295672</v>
       </c>
       <c r="D10">
-        <v>0.03653094576659528</v>
+        <v>0.01263332326336006</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.007819610623988105</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.01625049741175659</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.009453084216744343</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.008081005291215825</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4296,31 +4296,31 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.01862430206695871</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.0502743877684016</v>
+        <v>0.03505626537644325</v>
       </c>
       <c r="O10">
-        <v>0.07980720045585567</v>
+        <v>0.08324015913757495</v>
       </c>
       <c r="P10">
-        <v>0.01427172385151415</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.001025228434433407</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.05142014388660492</v>
+        <v>0.03692560954152265</v>
       </c>
       <c r="T10">
-        <v>0.09154404946282203</v>
+        <v>0.1023892693705584</v>
       </c>
       <c r="U10">
-        <v>0.06033957343000473</v>
+        <v>0.05147799403931379</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -4329,16 +4329,16 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.02939332319194844</v>
+        <v>0.0009880237965084263</v>
       </c>
       <c r="Y10">
-        <v>0.02637155837043756</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.006434064175185383</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.009136810204895096</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.01052364592449623</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -4793,100 +4793,100 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.2230194153683032</v>
+        <v>0.3123564459487089</v>
       </c>
       <c r="BA11">
-        <v>0.003029794249319589</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.29784526246771</v>
+        <v>0.433444449559512</v>
       </c>
       <c r="BC11">
-        <v>0.04328837348088212</v>
+        <v>0.02150410156930267</v>
       </c>
       <c r="BD11">
-        <v>0.007301316782442628</v>
+        <v>0</v>
       </c>
       <c r="BE11">
-        <v>0.07667521699545959</v>
+        <v>0.07553284143342545</v>
       </c>
       <c r="BF11">
-        <v>0.02611424040570105</v>
+        <v>0</v>
       </c>
       <c r="BG11">
-        <v>0.0004013291759833063</v>
+        <v>0</v>
       </c>
       <c r="BH11">
-        <v>0.003631307137243256</v>
+        <v>0</v>
       </c>
       <c r="BI11">
-        <v>0.1130199706657033</v>
+        <v>0.1343482619633068</v>
       </c>
       <c r="BJ11">
-        <v>0.01357509079295698</v>
+        <v>0</v>
       </c>
       <c r="BK11">
-        <v>0.02821023802447835</v>
+        <v>0</v>
       </c>
       <c r="BL11">
-        <v>0.0440977578847643</v>
+        <v>0.02281389952574425</v>
       </c>
       <c r="BM11">
-        <v>4.303483380139027E-05</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.02850124578111823</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.006332946675936626</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0.00259913065008579</v>
+        <v>0</v>
       </c>
       <c r="BQ11">
-        <v>0.000789740437905566</v>
+        <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.0008570981283736624</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>3.209637339871037E-05</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>0.003392059470871622</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>0.003229992397896159</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>0.0003796239287754585</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>0.02916436275667109</v>
+        <v>0</v>
       </c>
       <c r="BX11">
-        <v>0.00243783855148801</v>
+        <v>0</v>
       </c>
       <c r="BY11">
-        <v>0.008109711502283515</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
-        <v>0.01807920619094101</v>
+        <v>0</v>
       </c>
       <c r="CA11">
-        <v>0.004984627324279639</v>
+        <v>0</v>
       </c>
       <c r="CB11">
-        <v>2.320778269532873E-07</v>
+        <v>0</v>
       </c>
       <c r="CC11">
-        <v>5.55743659379272E-05</v>
+        <v>0</v>
       </c>
       <c r="CD11">
-        <v>0.002189508854612637</v>
+        <v>0</v>
       </c>
       <c r="CE11">
-        <v>0.008612656266848305</v>
+        <v>0</v>
       </c>
       <c r="CF11">
         <v>0</v>
@@ -5686,109 +5686,109 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.3534607255232404</v>
+        <v>0.5329549545472948</v>
       </c>
       <c r="CO2">
-        <v>0.5264260969548967</v>
+        <v>0.7685140101635262</v>
       </c>
       <c r="CP2">
-        <v>0.6604635182662765</v>
+        <v>0.9399328402441516</v>
       </c>
       <c r="CQ2">
-        <v>0.6690340478734884</v>
+        <v>0.9399328402441516</v>
       </c>
       <c r="CR2">
-        <v>0.7026038685197702</v>
+        <v>0.9458147092012048</v>
       </c>
       <c r="CS2">
-        <v>0.7180498188114647</v>
+        <v>0.9458147092012048</v>
       </c>
       <c r="CT2">
-        <v>0.7208610454476195</v>
+        <v>0.9458147092012048</v>
       </c>
       <c r="CU2">
-        <v>0.721178681624087</v>
+        <v>0.9458147092012048</v>
       </c>
       <c r="CV2">
-        <v>0.750062164208239</v>
+        <v>0.9458147092012048</v>
       </c>
       <c r="CW2">
-        <v>0.7864283059518027</v>
+        <v>0.9563039788894929</v>
       </c>
       <c r="CX2">
-        <v>0.7883161121227243</v>
+        <v>0.9563039788894929</v>
       </c>
       <c r="CY2">
-        <v>0.8410968941656142</v>
+        <v>0.9938390788265264</v>
       </c>
       <c r="CZ2">
-        <v>0.8669666903136585</v>
+        <v>0.9938390788265264</v>
       </c>
       <c r="DA2">
-        <v>0.9007058731764125</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DB2">
-        <v>0.9260483555140953</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DC2">
-        <v>0.9271009291085114</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DD2">
-        <v>0.9275247773358094</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DE2">
-        <v>0.9277484465649489</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DF2">
-        <v>0.9278006542371253</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DG2">
-        <v>0.9357746738479114</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DH2">
-        <v>0.9509620482600281</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DI2">
-        <v>0.950977651359118</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DJ2">
-        <v>0.9520651915425272</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DK2">
-        <v>0.9703863711181927</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DL2">
-        <v>0.9714392283126645</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DM2">
-        <v>0.984625409173865</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DN2">
-        <v>0.9948180917770022</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DO2">
-        <v>0.9950535390253302</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DP2">
-        <v>0.995076077099298</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DQ2">
-        <v>0.9980281429734945</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DR2">
-        <v>0.9985458954365271</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DS2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DT2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DU2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="DV2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:126">
@@ -6075,97 +6075,97 @@
         <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.03533398239483574</v>
+        <v>0.00890843813723557</v>
       </c>
       <c r="CR3">
-        <v>0.1822719117878803</v>
+        <v>0.2042098532493185</v>
       </c>
       <c r="CS3">
-        <v>0.4730493557423754</v>
+        <v>0.6397417982561548</v>
       </c>
       <c r="CT3">
-        <v>0.5679704893822547</v>
+        <v>0.7481684596170942</v>
       </c>
       <c r="CU3">
-        <v>0.5799282482833092</v>
+        <v>0.7481684596170942</v>
       </c>
       <c r="CV3">
-        <v>0.6179697408478459</v>
+        <v>0.7615987887294611</v>
       </c>
       <c r="CW3">
-        <v>0.6215527118919412</v>
+        <v>0.7615987887294611</v>
       </c>
       <c r="CX3">
-        <v>0.6481594038564175</v>
+        <v>0.7615987887294611</v>
       </c>
       <c r="CY3">
-        <v>0.6549816921535966</v>
+        <v>0.7615987887294611</v>
       </c>
       <c r="CZ3">
-        <v>0.688120759913403</v>
+        <v>0.766841436506833</v>
       </c>
       <c r="DA3">
-        <v>0.7314724404931482</v>
+        <v>0.7891404640754179</v>
       </c>
       <c r="DB3">
-        <v>0.740435979913934</v>
+        <v>0.7891404640754179</v>
       </c>
       <c r="DC3">
-        <v>0.852959574929671</v>
+        <v>0.9269655048501566</v>
       </c>
       <c r="DD3">
-        <v>0.8533858898296686</v>
+        <v>0.9269655048501566</v>
       </c>
       <c r="DE3">
-        <v>0.9271157452031572</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.9272729048484947</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.9557409365792612</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.9560023456962676</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.9560966605703063</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.956104115772055</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.9593064628963542</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.9604381955004215</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.9620122287661423</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.9631726493989592</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.9660581782874458</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.9681868674120894</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.9768224145284549</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.9859176674224801</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.9941822904865903</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.9965598965392687</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.9975908072450221</v>
+        <v>1</v>
       </c>
       <c r="DV3">
         <v>1</v>
@@ -6449,97 +6449,97 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1802040037029629</v>
+        <v>0.2551369013163777</v>
       </c>
       <c r="CP4">
-        <v>0.1804970386115189</v>
+        <v>0.2551369013163777</v>
       </c>
       <c r="CQ4">
-        <v>0.3969817138056019</v>
+        <v>0.5719002431651077</v>
       </c>
       <c r="CR4">
-        <v>0.4014812945771193</v>
+        <v>0.5719002431651077</v>
       </c>
       <c r="CS4">
-        <v>0.4211647509743794</v>
+        <v>0.5719002431651077</v>
       </c>
       <c r="CT4">
-        <v>0.4804650757251284</v>
+        <v>0.6216698490356215</v>
       </c>
       <c r="CU4">
-        <v>0.4872887329092097</v>
+        <v>0.6216698490356215</v>
       </c>
       <c r="CV4">
-        <v>0.4906821964111329</v>
+        <v>0.6216698490356215</v>
       </c>
       <c r="CW4">
-        <v>0.4933446761959797</v>
+        <v>0.6216698490356215</v>
       </c>
       <c r="CX4">
-        <v>0.5233860273850613</v>
+        <v>0.6217400882701822</v>
       </c>
       <c r="CY4">
-        <v>0.5619331155882458</v>
+        <v>0.6362581939509779</v>
       </c>
       <c r="CZ4">
-        <v>0.585535476282118</v>
+        <v>0.6362581939509779</v>
       </c>
       <c r="DA4">
-        <v>0.6581942741104018</v>
+        <v>0.7087185360422151</v>
       </c>
       <c r="DB4">
-        <v>0.6598043665834292</v>
+        <v>0.7087185360422151</v>
       </c>
       <c r="DC4">
-        <v>0.8166586736750914</v>
+        <v>0.924193583525017</v>
       </c>
       <c r="DD4">
-        <v>0.8453107169342317</v>
+        <v>0.924193583525017</v>
       </c>
       <c r="DE4">
-        <v>0.9199394131446523</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.9432460723993159</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.9534018153403009</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.9534362846942166</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.9536470364541828</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.966504694850306</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.9712171402252134</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.9722122225447842</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.9722374197275118</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.9758590828434176</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.9763792449206188</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.9885250751453114</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.9987667981095857</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.9991294361376469</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.9996599610694884</v>
+        <v>1</v>
       </c>
       <c r="DT4">
         <v>1</v>
@@ -6829,97 +6829,97 @@
         <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.0414397235972116</v>
+        <v>0.01899627767744998</v>
       </c>
       <c r="CP5">
-        <v>0.3045203506098182</v>
+        <v>0.4060392227574213</v>
       </c>
       <c r="CQ5">
-        <v>0.5058136796787165</v>
+        <v>0.690481029033295</v>
       </c>
       <c r="CR5">
-        <v>0.5594627751850137</v>
+        <v>0.7297516268970108</v>
       </c>
       <c r="CS5">
-        <v>0.5606530135377783</v>
+        <v>0.7297516268970108</v>
       </c>
       <c r="CT5">
-        <v>0.6043563704923376</v>
+        <v>0.7525067897827183</v>
       </c>
       <c r="CU5">
-        <v>0.6246117891629708</v>
+        <v>0.7525067897827183</v>
       </c>
       <c r="CV5">
-        <v>0.66973085520673</v>
+        <v>0.7776128139231059</v>
       </c>
       <c r="CW5">
-        <v>0.6827649700748417</v>
+        <v>0.7776128139231059</v>
       </c>
       <c r="CX5">
-        <v>0.705196277165789</v>
+        <v>0.7776128139231059</v>
       </c>
       <c r="CY5">
-        <v>0.7476651622896823</v>
+        <v>0.7983180697913015</v>
       </c>
       <c r="CZ5">
-        <v>0.7482238356174075</v>
+        <v>0.7983180697913015</v>
       </c>
       <c r="DA5">
-        <v>0.818077776555288</v>
+        <v>0.8644976869964939</v>
       </c>
       <c r="DB5">
-        <v>0.8190547298348462</v>
+        <v>0.8644976869964939</v>
       </c>
       <c r="DC5">
-        <v>0.9306554009696474</v>
+        <v>1</v>
       </c>
       <c r="DD5">
-        <v>0.9395786715785355</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.9520444328320571</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.9591281254185006</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.9634073498243393</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.9639880451272503</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.9767439497670768</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.9789881342592095</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.9793661320647564</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.9795267487165394</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.982852191122305</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.9828545130543153</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.9840562400201567</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.9867973824562909</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.9867986577606321</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.987480236076559</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.9993505571765627</v>
+        <v>1</v>
       </c>
       <c r="DT5">
         <v>1</v>
@@ -7206,109 +7206,109 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.3297597983613985</v>
+        <v>0.5050890434838783</v>
       </c>
       <c r="CO6">
-        <v>0.3852741188256855</v>
+        <v>0.5480801443215928</v>
       </c>
       <c r="CP6">
-        <v>0.5326298053626091</v>
+        <v>0.7458220422823894</v>
       </c>
       <c r="CQ6">
-        <v>0.5394517938870758</v>
+        <v>0.7458220422823894</v>
       </c>
       <c r="CR6">
-        <v>0.5682135573269967</v>
+        <v>0.7458220422823894</v>
       </c>
       <c r="CS6">
-        <v>0.6016541266080667</v>
+        <v>0.7516193301666055</v>
       </c>
       <c r="CT6">
-        <v>0.6112120624628864</v>
+        <v>0.7516193301666055</v>
       </c>
       <c r="CU6">
-        <v>0.6190067978019402</v>
+        <v>0.7516193301666055</v>
       </c>
       <c r="CV6">
-        <v>0.6194726875303376</v>
+        <v>0.7516193301666055</v>
       </c>
       <c r="CW6">
-        <v>0.6886252334458266</v>
+        <v>0.8175905580447718</v>
       </c>
       <c r="CX6">
-        <v>0.6959823298466867</v>
+        <v>0.8175905580447718</v>
       </c>
       <c r="CY6">
-        <v>0.7305365210832041</v>
+        <v>0.825264275828375</v>
       </c>
       <c r="CZ6">
-        <v>0.7672747459970483</v>
+        <v>0.8366180450633327</v>
       </c>
       <c r="DA6">
-        <v>0.8753388292820026</v>
+        <v>0.9681544064179208</v>
       </c>
       <c r="DB6">
-        <v>0.9146079208223089</v>
+        <v>0.9837726334305152</v>
       </c>
       <c r="DC6">
-        <v>0.9542385239675553</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.954778492448224</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.9648634443682723</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.9658735562101588</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.9714800717437587</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.9715596550395221</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.9747756617671683</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.9810458230172184</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.9823214908638654</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.9832481927424499</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.9832506623951813</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.985858820563515</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.9898001480959537</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.9925909842762143</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.9963377632067806</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.9999989377007324</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:126">
@@ -7466,229 +7466,229 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.2311289384491287</v>
+        <v>0.3542616907138852</v>
       </c>
       <c r="BA7">
-        <v>0.2685595348284521</v>
+        <v>0.3673496911610083</v>
       </c>
       <c r="BB7">
-        <v>0.5316560442737672</v>
+        <v>0.7779179772184052</v>
       </c>
       <c r="BC7">
-        <v>0.539561114960555</v>
+        <v>0.7779179772184052</v>
       </c>
       <c r="BD7">
-        <v>0.542231898296986</v>
+        <v>0.7779179772184052</v>
       </c>
       <c r="BE7">
-        <v>0.6226323040667398</v>
+        <v>0.8666915425657649</v>
       </c>
       <c r="BF7">
-        <v>0.6241185516277112</v>
+        <v>0.8666915425657649</v>
       </c>
       <c r="BG7">
-        <v>0.6245874054661863</v>
+        <v>0.8666915425657649</v>
       </c>
       <c r="BH7">
-        <v>0.6380293031336022</v>
+        <v>0.8666915425657649</v>
       </c>
       <c r="BI7">
-        <v>0.7346982817774508</v>
+        <v>0.9841200204101475</v>
       </c>
       <c r="BJ7">
-        <v>0.7541410959589963</v>
+        <v>0.9841200204101475</v>
       </c>
       <c r="BK7">
-        <v>0.7880549714919467</v>
+        <v>0.9910137880312471</v>
       </c>
       <c r="BL7">
-        <v>0.8183991383182392</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BM7">
-        <v>0.8192221257861366</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BN7">
-        <v>0.8458951467143309</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BO7">
-        <v>0.8497995798281638</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BP7">
-        <v>0.852465714048769</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BQ7">
-        <v>0.8529192876355534</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BR7">
-        <v>0.8549667266246879</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BS7">
-        <v>0.8559167438580213</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BT7">
-        <v>0.8757360458639509</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BU7">
-        <v>0.8844949055029991</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BV7">
-        <v>0.8898236611652782</v>
+        <v>0.9916199918063485</v>
       </c>
       <c r="BW7">
-        <v>0.9245813366248732</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX7">
-        <v>0.927388022700343</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY7">
-        <v>0.9501542381211207</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ7">
-        <v>0.9723603048674375</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA7">
-        <v>0.9784841959179562</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB7">
-        <v>0.9786208895372459</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC7">
-        <v>0.9786227044696889</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD7">
-        <v>0.9877176845930415</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CE7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CG7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CH7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CI7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CJ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CK7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CL7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CM7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CN7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CO7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CP7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CQ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CR7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CS7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CT7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CU7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CV7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CW7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CX7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CY7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CZ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DA7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DB7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DC7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DD7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DE7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:126">
@@ -7966,97 +7966,97 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.14584622503048</v>
+        <v>0.1987527094615143</v>
       </c>
       <c r="CO8">
-        <v>0.2499583598719811</v>
+        <v>0.325903918746494</v>
       </c>
       <c r="CP8">
-        <v>0.5100051977118101</v>
+        <v>0.7205860269609801</v>
       </c>
       <c r="CQ8">
-        <v>0.5519824553787543</v>
+        <v>0.741134926267777</v>
       </c>
       <c r="CR8">
-        <v>0.5525707117810629</v>
+        <v>0.741134926267777</v>
       </c>
       <c r="CS8">
-        <v>0.5818030848521361</v>
+        <v>0.741134926267777</v>
       </c>
       <c r="CT8">
-        <v>0.604459840125297</v>
+        <v>0.741134926267777</v>
       </c>
       <c r="CU8">
-        <v>0.6188393558912532</v>
+        <v>0.741134926267777</v>
       </c>
       <c r="CV8">
-        <v>0.6194324202052556</v>
+        <v>0.741134926267777</v>
       </c>
       <c r="CW8">
-        <v>0.7418526027076126</v>
+        <v>0.8996965166557082</v>
       </c>
       <c r="CX8">
-        <v>0.7803667392499316</v>
+        <v>0.9143038783204147</v>
       </c>
       <c r="CY8">
-        <v>0.7999827393659655</v>
+        <v>0.9143038783204147</v>
       </c>
       <c r="CZ8">
-        <v>0.8483565804630315</v>
+        <v>0.9458271385759506</v>
       </c>
       <c r="DA8">
-        <v>0.8488448079511451</v>
+        <v>0.9458271385759506</v>
       </c>
       <c r="DB8">
-        <v>0.9104203347053635</v>
+        <v>1</v>
       </c>
       <c r="DC8">
-        <v>0.9104350369777624</v>
+        <v>1</v>
       </c>
       <c r="DD8">
-        <v>0.920681983308746</v>
+        <v>1</v>
       </c>
       <c r="DE8">
-        <v>0.9270307966198672</v>
+        <v>1</v>
       </c>
       <c r="DF8">
-        <v>0.9316444924174939</v>
+        <v>1</v>
       </c>
       <c r="DG8">
-        <v>0.9367878577262195</v>
+        <v>1</v>
       </c>
       <c r="DH8">
-        <v>0.9491935903547631</v>
+        <v>1</v>
       </c>
       <c r="DI8">
-        <v>0.9605656126136474</v>
+        <v>1</v>
       </c>
       <c r="DJ8">
-        <v>0.9636167408529507</v>
+        <v>1</v>
       </c>
       <c r="DK8">
-        <v>0.965548790370621</v>
+        <v>1</v>
       </c>
       <c r="DL8">
-        <v>0.9660341320692512</v>
+        <v>1</v>
       </c>
       <c r="DM8">
-        <v>0.9747417992894751</v>
+        <v>1</v>
       </c>
       <c r="DN8">
-        <v>0.9891175899730182</v>
+        <v>1</v>
       </c>
       <c r="DO8">
-        <v>0.9976371041786777</v>
+        <v>1</v>
       </c>
       <c r="DP8">
-        <v>0.9983399393955109</v>
+        <v>1</v>
       </c>
       <c r="DQ8">
-        <v>0.9985383164996472</v>
+        <v>1</v>
       </c>
       <c r="DR8">
-        <v>0.9993203757406766</v>
+        <v>1</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -8076,379 +8076,379 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>0.3256140977624696</v>
+        <v>0.4870653172255112</v>
       </c>
       <c r="C9">
-        <v>0.4289566102752099</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="D9">
-        <v>0.4289566102752099</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="E9">
-        <v>0.4289566102752099</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="F9">
-        <v>0.4452226327593944</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="G9">
-        <v>0.4562990686835759</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="H9">
-        <v>0.4562990686835759</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="I9">
-        <v>0.4562990686835759</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="J9">
-        <v>0.4616855632515293</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="K9">
-        <v>0.4616855632515293</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="L9">
-        <v>0.4675557964543725</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="M9">
-        <v>0.5224700334658654</v>
+        <v>0.6535029068798712</v>
       </c>
       <c r="N9">
-        <v>0.6295412524870467</v>
+        <v>0.7825037467787865</v>
       </c>
       <c r="O9">
-        <v>0.6951660601473522</v>
+        <v>0.8435980609356148</v>
       </c>
       <c r="P9">
-        <v>0.6965733246580578</v>
+        <v>0.8435980609356148</v>
       </c>
       <c r="Q9">
-        <v>0.6965733246580578</v>
+        <v>0.8435980609356148</v>
       </c>
       <c r="R9">
-        <v>0.7255121583782917</v>
+        <v>0.8445854333347154</v>
       </c>
       <c r="S9">
-        <v>0.8065256357158943</v>
+        <v>0.9308928132134241</v>
       </c>
       <c r="T9">
-        <v>0.8618098920430901</v>
+        <v>0.9750449870924085</v>
       </c>
       <c r="U9">
-        <v>0.8618098920430901</v>
+        <v>0.9750449870924085</v>
       </c>
       <c r="V9">
-        <v>0.8701823168351359</v>
+        <v>0.9750449870924085</v>
       </c>
       <c r="W9">
-        <v>0.906223938914262</v>
+        <v>0.9876696922471503</v>
       </c>
       <c r="X9">
-        <v>0.9420858769985282</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.9536422826447136</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.9653969048041543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.9653969048041543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.9653969048041543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.9653969048041543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.9659860008525225</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.9906599564154378</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:126">
@@ -8456,94 +8456,94 @@
         <v>134</v>
       </c>
       <c r="B10">
-        <v>0.2723686306910577</v>
+        <v>0.3974113691451512</v>
       </c>
       <c r="C10">
-        <v>0.472698845466142</v>
+        <v>0.6772893554747185</v>
       </c>
       <c r="D10">
-        <v>0.5092297912327374</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="E10">
-        <v>0.5092297912327374</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="F10">
-        <v>0.5170494018567254</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="G10">
-        <v>0.533299899268482</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="H10">
-        <v>0.5427529834852263</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="I10">
-        <v>0.5508339887764421</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="J10">
-        <v>0.5508339887764421</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="K10">
-        <v>0.5508339887764421</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="L10">
-        <v>0.5508339887764421</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="M10">
-        <v>0.5694582908434008</v>
+        <v>0.6899226787380786</v>
       </c>
       <c r="N10">
-        <v>0.6197326786118025</v>
+        <v>0.7249789441145218</v>
       </c>
       <c r="O10">
-        <v>0.6995398790676581</v>
+        <v>0.8082191032520968</v>
       </c>
       <c r="P10">
-        <v>0.7138116029191722</v>
+        <v>0.8082191032520968</v>
       </c>
       <c r="Q10">
-        <v>0.7138116029191722</v>
+        <v>0.8082191032520968</v>
       </c>
       <c r="R10">
-        <v>0.7148368313536057</v>
+        <v>0.8082191032520968</v>
       </c>
       <c r="S10">
-        <v>0.7662569752402105</v>
+        <v>0.8451447127936195</v>
       </c>
       <c r="T10">
-        <v>0.8578010247030325</v>
+        <v>0.9475339821641779</v>
       </c>
       <c r="U10">
-        <v>0.9181405981330373</v>
+        <v>0.9990119762034917</v>
       </c>
       <c r="V10">
-        <v>0.9181405981330373</v>
+        <v>0.9990119762034917</v>
       </c>
       <c r="W10">
-        <v>0.9181405981330373</v>
+        <v>0.9990119762034917</v>
       </c>
       <c r="X10">
-        <v>0.9475339213249857</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9739054796954233</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9803395438706086</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9894763540755037</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9894763540755037</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9894763540755037</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9894763540755037</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9894763540755037</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -8986,97 +8986,97 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.2230194153683032</v>
+        <v>0.3123564459487089</v>
       </c>
       <c r="BA11">
-        <v>0.2260492096176228</v>
+        <v>0.3123564459487089</v>
       </c>
       <c r="BB11">
-        <v>0.5238944720853328</v>
+        <v>0.7458008955082209</v>
       </c>
       <c r="BC11">
-        <v>0.5671828455662149</v>
+        <v>0.7673049970775236</v>
       </c>
       <c r="BD11">
-        <v>0.5744841623486575</v>
+        <v>0.7673049970775236</v>
       </c>
       <c r="BE11">
-        <v>0.6511593793441171</v>
+        <v>0.8428378385109491</v>
       </c>
       <c r="BF11">
-        <v>0.6772736197498181</v>
+        <v>0.8428378385109491</v>
       </c>
       <c r="BG11">
-        <v>0.6776749489258015</v>
+        <v>0.8428378385109491</v>
       </c>
       <c r="BH11">
-        <v>0.6813062560630447</v>
+        <v>0.8428378385109491</v>
       </c>
       <c r="BI11">
-        <v>0.794326226728748</v>
+        <v>0.9771861004742559</v>
       </c>
       <c r="BJ11">
-        <v>0.8079013175217049</v>
+        <v>0.9771861004742559</v>
       </c>
       <c r="BK11">
-        <v>0.8361115555461832</v>
+        <v>0.9771861004742559</v>
       </c>
       <c r="BL11">
-        <v>0.8802093134309475</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.880252348264749</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.9087535940458672</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.9150865407218038</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.9176856713718896</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.9184754118097952</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9193325099381688</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9193646063115676</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.9227566657824392</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0.9259866581803353</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0.9263662821091108</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.9555306448657819</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9579684834172699</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0.9660781949195535</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0.9841574011104945</v>
+        <v>1</v>
       </c>
       <c r="CA11">
-        <v>0.9891420284347742</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0.9891422605126011</v>
+        <v>1</v>
       </c>
       <c r="CC11">
-        <v>0.9891978348785391</v>
+        <v>1</v>
       </c>
       <c r="CD11">
-        <v>0.9913873437331517</v>
+        <v>1</v>
       </c>
       <c r="CE11">
         <v>1</v>
@@ -9270,34 +9270,34 @@
         <v>126</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>89</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5329549545472948</v>
       </c>
       <c r="F2">
-        <v>0.5264260969548967</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" t="s">
-        <v>149</v>
       </c>
       <c r="L2" t="s">
         <v>150</v>
@@ -9311,34 +9311,34 @@
         <v>127</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>93</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6397417982561548</v>
       </c>
       <c r="F3">
-        <v>0.5679704893822547</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3">
         <v>20</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
       </c>
       <c r="L3" t="s">
         <v>150</v>
@@ -9352,34 +9352,34 @@
         <v>128</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>90</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5719002431651077</v>
       </c>
       <c r="F4">
-        <v>0.5233860273850613</v>
+        <v>94</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4">
         <v>20</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
       </c>
       <c r="L4" t="s">
         <v>150</v>
@@ -9393,34 +9393,34 @@
         <v>129</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>91</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.690481029033295</v>
+      </c>
+      <c r="F5">
         <v>94</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5058136796787165</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5">
         <v>20</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" t="s">
-        <v>149</v>
       </c>
       <c r="L5" t="s">
         <v>150</v>
@@ -9434,34 +9434,34 @@
         <v>130</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>89</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5050890434838783</v>
       </c>
       <c r="F6">
-        <v>0.5326298053626091</v>
+        <v>91</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6">
         <v>20</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" t="s">
-        <v>149</v>
       </c>
       <c r="L6" t="s">
         <v>150</v>
@@ -9475,34 +9475,34 @@
         <v>131</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.7779179772184052</v>
+      </c>
+      <c r="F7">
         <v>53</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5316560442737672</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7">
         <v>20</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" t="s">
-        <v>149</v>
       </c>
       <c r="L7" t="s">
         <v>150</v>
@@ -9516,34 +9516,34 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>89</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.7205860269609801</v>
+      </c>
+      <c r="F8">
         <v>93</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5100051977118101</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8">
         <v>20</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" t="s">
-        <v>149</v>
       </c>
       <c r="L8" t="s">
         <v>150</v>
@@ -9557,34 +9557,34 @@
         <v>133</v>
       </c>
       <c r="B9">
+        <v>0.4870653172255112</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>0.3256140977624696</v>
+        <v>0.6099569791235744</v>
       </c>
       <c r="F9">
-        <v>0.5224700334658654</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9">
         <v>20</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" t="s">
-        <v>149</v>
       </c>
       <c r="L9" t="s">
         <v>150</v>
@@ -9598,34 +9598,34 @@
         <v>134</v>
       </c>
       <c r="B10">
+        <v>0.3974113691451512</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
       <c r="E10">
-        <v>0.2723686306910577</v>
+        <v>0.6772893554747185</v>
       </c>
       <c r="F10">
-        <v>0.5092297912327374</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10">
         <v>20</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" t="s">
-        <v>149</v>
       </c>
       <c r="L10" t="s">
         <v>150</v>
@@ -9639,34 +9639,34 @@
         <v>135</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>49</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.7458008955082209</v>
+      </c>
+      <c r="F11">
         <v>53</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5238944720853328</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11">
         <v>20</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" t="s">
-        <v>149</v>
       </c>
       <c r="L11" t="s">
         <v>150</v>
@@ -9734,34 +9734,34 @@
         <v>126</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>89</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7685140101635262</v>
       </c>
       <c r="F2">
-        <v>0.7026038685197702</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" t="s">
-        <v>149</v>
       </c>
       <c r="L2" t="s">
         <v>150</v>
@@ -9775,34 +9775,34 @@
         <v>127</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>93</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7481684596170942</v>
       </c>
       <c r="F3">
-        <v>0.7314724404931482</v>
+        <v>97</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3">
         <v>20</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
       </c>
       <c r="L3" t="s">
         <v>150</v>
@@ -9816,34 +9816,34 @@
         <v>128</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>90</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7087185360422151</v>
       </c>
       <c r="F4">
-        <v>0.8166586736750914</v>
+        <v>104</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4">
         <v>20</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
       </c>
       <c r="L4" t="s">
         <v>150</v>
@@ -9857,34 +9857,34 @@
         <v>129</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>91</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7297516268970108</v>
       </c>
       <c r="F5">
-        <v>0.705196277165789</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5">
         <v>20</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" t="s">
-        <v>149</v>
       </c>
       <c r="L5" t="s">
         <v>150</v>
@@ -9898,34 +9898,34 @@
         <v>130</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>89</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7458220422823894</v>
       </c>
       <c r="F6">
-        <v>0.7305365210832041</v>
+        <v>93</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6">
         <v>20</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" t="s">
-        <v>149</v>
       </c>
       <c r="L6" t="s">
         <v>150</v>
@@ -9939,34 +9939,34 @@
         <v>131</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7779179772184052</v>
       </c>
       <c r="F7">
-        <v>0.7346982817774508</v>
+        <v>53</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7">
         <v>20</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" t="s">
-        <v>149</v>
       </c>
       <c r="L7" t="s">
         <v>150</v>
@@ -9980,34 +9980,34 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>89</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7205860269609801</v>
       </c>
       <c r="F8">
-        <v>0.7418526027076126</v>
+        <v>93</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8">
         <v>20</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" t="s">
-        <v>149</v>
       </c>
       <c r="L8" t="s">
         <v>150</v>
@@ -10021,34 +10021,34 @@
         <v>133</v>
       </c>
       <c r="B9">
+        <v>0.4870653172255112</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
       <c r="E9">
-        <v>0.3256140977624696</v>
+        <v>0.7825037467787865</v>
       </c>
       <c r="F9">
-        <v>0.7255121583782917</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9">
         <v>20</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" t="s">
-        <v>149</v>
       </c>
       <c r="L9" t="s">
         <v>150</v>
@@ -10062,34 +10062,34 @@
         <v>134</v>
       </c>
       <c r="B10">
+        <v>0.3974113691451512</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
       <c r="E10">
-        <v>0.2723686306910577</v>
+        <v>0.7249789441145218</v>
       </c>
       <c r="F10">
-        <v>0.7138116029191722</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10">
         <v>20</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" t="s">
-        <v>149</v>
       </c>
       <c r="L10" t="s">
         <v>150</v>
@@ -10103,34 +10103,34 @@
         <v>135</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>49</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7458008955082209</v>
       </c>
       <c r="F11">
-        <v>0.794326226728748</v>
+        <v>53</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11">
         <v>20</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" t="s">
-        <v>149</v>
       </c>
       <c r="L11" t="s">
         <v>150</v>
@@ -10198,34 +10198,34 @@
         <v>126</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>89</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9399328402441516</v>
       </c>
       <c r="F2">
-        <v>0.8410968941656142</v>
+        <v>93</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" t="s">
-        <v>149</v>
       </c>
       <c r="L2" t="s">
         <v>150</v>
@@ -10239,34 +10239,34 @@
         <v>127</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>93</v>
       </c>
       <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.9269655048501566</v>
+      </c>
+      <c r="F3">
         <v>106</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.852959574929671</v>
-      </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3">
         <v>20</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
       </c>
       <c r="L3" t="s">
         <v>150</v>
@@ -10280,34 +10280,34 @@
         <v>128</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>90</v>
       </c>
       <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.924193583525017</v>
+      </c>
+      <c r="F4">
         <v>106</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8166586736750914</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4">
         <v>20</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
       </c>
       <c r="L4" t="s">
         <v>150</v>
@@ -10321,34 +10321,34 @@
         <v>129</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>91</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.8644976869964939</v>
+      </c>
+      <c r="F5">
         <v>104</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.818077776555288</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5">
         <v>20</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" t="s">
-        <v>149</v>
       </c>
       <c r="L5" t="s">
         <v>150</v>
@@ -10362,34 +10362,34 @@
         <v>130</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>89</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8175905580447718</v>
       </c>
       <c r="F6">
-        <v>0.8753388292820026</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6">
         <v>20</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" t="s">
-        <v>149</v>
       </c>
       <c r="L6" t="s">
         <v>150</v>
@@ -10403,34 +10403,34 @@
         <v>131</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8666915425657649</v>
       </c>
       <c r="F7">
-        <v>0.8183991383182392</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7">
         <v>20</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" t="s">
-        <v>149</v>
       </c>
       <c r="L7" t="s">
         <v>150</v>
@@ -10444,34 +10444,34 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>89</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8996965166557082</v>
       </c>
       <c r="F8">
-        <v>0.8483565804630315</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8">
         <v>20</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" t="s">
-        <v>149</v>
       </c>
       <c r="L8" t="s">
         <v>150</v>
@@ -10485,34 +10485,34 @@
         <v>133</v>
       </c>
       <c r="B9">
+        <v>0.4870653172255112</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
       <c r="E9">
-        <v>0.3256140977624696</v>
+        <v>0.8435980609356148</v>
       </c>
       <c r="F9">
-        <v>0.8065256357158943</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9">
         <v>20</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" t="s">
-        <v>149</v>
       </c>
       <c r="L9" t="s">
         <v>150</v>
@@ -10526,34 +10526,34 @@
         <v>134</v>
       </c>
       <c r="B10">
+        <v>0.3974113691451512</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
       <c r="E10">
-        <v>0.2723686306910577</v>
+        <v>0.8082191032520968</v>
       </c>
       <c r="F10">
-        <v>0.8578010247030325</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10">
         <v>20</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" t="s">
-        <v>149</v>
       </c>
       <c r="L10" t="s">
         <v>150</v>
@@ -10567,34 +10567,34 @@
         <v>135</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>49</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8428378385109491</v>
       </c>
       <c r="F11">
-        <v>0.8079013175217049</v>
+        <v>56</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11">
         <v>20</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" t="s">
-        <v>149</v>
       </c>
       <c r="L11" t="s">
         <v>150</v>
@@ -10662,34 +10662,34 @@
         <v>126</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>89</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9399328402441516</v>
       </c>
       <c r="F2">
-        <v>0.9007058731764125</v>
+        <v>93</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" t="s">
-        <v>149</v>
       </c>
       <c r="L2" t="s">
         <v>150</v>
@@ -10703,34 +10703,34 @@
         <v>127</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>93</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9269655048501566</v>
       </c>
       <c r="F3">
-        <v>0.9271157452031572</v>
+        <v>106</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3">
         <v>20</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
       </c>
       <c r="L3" t="s">
         <v>150</v>
@@ -10744,34 +10744,34 @@
         <v>128</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>90</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.924193583525017</v>
       </c>
       <c r="F4">
-        <v>0.9199394131446523</v>
+        <v>106</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4">
         <v>20</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
       </c>
       <c r="L4" t="s">
         <v>150</v>
@@ -10785,34 +10785,34 @@
         <v>129</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>91</v>
       </c>
       <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>106</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9306554009696474</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5">
         <v>20</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" t="s">
-        <v>149</v>
       </c>
       <c r="L5" t="s">
         <v>150</v>
@@ -10826,34 +10826,34 @@
         <v>130</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>89</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9681544064179208</v>
       </c>
       <c r="F6">
-        <v>0.9146079208223089</v>
+        <v>104</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6">
         <v>20</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" t="s">
-        <v>149</v>
       </c>
       <c r="L6" t="s">
         <v>150</v>
@@ -10867,34 +10867,34 @@
         <v>131</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9841200204101475</v>
       </c>
       <c r="F7">
-        <v>0.9245813366248732</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7">
         <v>20</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" t="s">
-        <v>149</v>
       </c>
       <c r="L7" t="s">
         <v>150</v>
@@ -10908,34 +10908,34 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>89</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9143038783204147</v>
       </c>
       <c r="F8">
-        <v>0.9104203347053635</v>
+        <v>101</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8">
         <v>20</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" t="s">
-        <v>149</v>
       </c>
       <c r="L8" t="s">
         <v>150</v>
@@ -10949,34 +10949,34 @@
         <v>133</v>
       </c>
       <c r="B9">
+        <v>0.4870653172255112</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>0.3256140977624696</v>
+        <v>0.9308928132134241</v>
       </c>
       <c r="F9">
-        <v>0.906223938914262</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9">
         <v>20</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" t="s">
-        <v>149</v>
       </c>
       <c r="L9" t="s">
         <v>150</v>
@@ -10990,34 +10990,34 @@
         <v>134</v>
       </c>
       <c r="B10">
+        <v>0.3974113691451512</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9475339821641779</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10">
         <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0.2723686306910577</v>
-      </c>
-      <c r="F10">
-        <v>0.9181405981330373</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" t="s">
-        <v>149</v>
       </c>
       <c r="L10" t="s">
         <v>150</v>
@@ -11031,34 +11031,34 @@
         <v>135</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>49</v>
       </c>
       <c r="D11">
-        <v>65</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9771861004742559</v>
       </c>
       <c r="F11">
-        <v>0.9087535940458672</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11">
         <v>20</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" t="s">
-        <v>149</v>
       </c>
       <c r="L11" t="s">
         <v>150</v>
